--- a/src/assets/data/人口數量變動(SPSS).xlsx
+++ b/src/assets/data/人口數量變動(SPSS).xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="56">
   <si>
     <t>year</t>
   </si>
@@ -195,6 +195,14 @@
   </si>
   <si>
     <t>社會成長係數</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1131,7 +1139,7 @@
   <dimension ref="A1:M1009"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -42513,1711 +42521,1837 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>37</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>96</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>961</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2">
+        <v>727446</v>
+      </c>
+      <c r="G2">
+        <v>-1044</v>
+      </c>
+      <c r="H2">
+        <v>1674</v>
+      </c>
+      <c r="I2">
+        <v>1746</v>
+      </c>
+      <c r="J2">
+        <v>-0.1</v>
+      </c>
+      <c r="K2">
+        <v>5995</v>
+      </c>
+      <c r="L2">
+        <v>6967</v>
+      </c>
+      <c r="M2">
+        <v>-1.34</v>
+      </c>
+      <c r="N2">
+        <v>-1.44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>96</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>962</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3">
+        <v>726868</v>
+      </c>
+      <c r="G3">
+        <v>-578</v>
+      </c>
+      <c r="H3">
+        <v>1452</v>
+      </c>
+      <c r="I3">
+        <v>1532</v>
+      </c>
+      <c r="J3">
+        <v>-0.11</v>
+      </c>
+      <c r="K3">
+        <v>7732</v>
+      </c>
+      <c r="L3">
+        <v>8230</v>
+      </c>
+      <c r="M3">
+        <v>-0.69</v>
+      </c>
+      <c r="N3">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>96</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>963</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4">
+        <v>725949</v>
+      </c>
+      <c r="G4">
+        <v>-919</v>
+      </c>
+      <c r="H4">
+        <v>1566</v>
+      </c>
+      <c r="I4">
+        <v>1550</v>
+      </c>
+      <c r="J4">
+        <v>0.02</v>
+      </c>
+      <c r="K4">
+        <v>6609</v>
+      </c>
+      <c r="L4">
+        <v>7544</v>
+      </c>
+      <c r="M4">
+        <v>-1.29</v>
+      </c>
+      <c r="N4">
+        <v>-1.27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>96</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>964</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5">
+        <v>725672</v>
+      </c>
+      <c r="G5">
+        <v>-277</v>
+      </c>
+      <c r="H5">
+        <v>1808</v>
+      </c>
+      <c r="I5">
+        <v>1672</v>
+      </c>
+      <c r="J5">
+        <v>0.19</v>
+      </c>
+      <c r="K5">
+        <v>4937</v>
+      </c>
+      <c r="L5">
+        <v>5350</v>
+      </c>
+      <c r="M5">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="N5">
+        <v>-0.38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>97</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>971</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6">
+        <v>725378</v>
+      </c>
+      <c r="G6">
+        <v>-294</v>
+      </c>
+      <c r="H6">
+        <v>1621</v>
+      </c>
+      <c r="I6">
+        <v>1754</v>
+      </c>
+      <c r="J6">
+        <v>-0.18</v>
+      </c>
+      <c r="K6">
+        <v>6386</v>
+      </c>
+      <c r="L6">
+        <v>6547</v>
+      </c>
+      <c r="M6">
+        <v>-0.22</v>
+      </c>
+      <c r="N6">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>97</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>972</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7">
+        <v>725237</v>
+      </c>
+      <c r="G7">
+        <v>-141</v>
+      </c>
+      <c r="H7">
+        <v>1502</v>
+      </c>
+      <c r="I7">
+        <v>1544</v>
+      </c>
+      <c r="J7">
+        <v>-0.06</v>
+      </c>
+      <c r="K7">
+        <v>8205</v>
+      </c>
+      <c r="L7">
+        <v>8304</v>
+      </c>
+      <c r="M7">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="N7">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>97</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>973</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8">
+        <v>724334</v>
+      </c>
+      <c r="G8">
+        <v>-903</v>
+      </c>
+      <c r="H8">
+        <v>1465</v>
+      </c>
+      <c r="I8">
+        <v>1551</v>
+      </c>
+      <c r="J8">
+        <v>-0.12</v>
+      </c>
+      <c r="K8">
+        <v>6599</v>
+      </c>
+      <c r="L8">
+        <v>7416</v>
+      </c>
+      <c r="M8">
+        <v>-1.1299999999999999</v>
+      </c>
+      <c r="N8">
+        <v>-1.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>97</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>974</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9">
+        <v>723674</v>
+      </c>
+      <c r="G9">
+        <v>-660</v>
+      </c>
+      <c r="H9">
+        <v>1780</v>
+      </c>
+      <c r="I9">
+        <v>1627</v>
+      </c>
+      <c r="J9">
+        <v>0.21</v>
+      </c>
+      <c r="K9">
+        <v>6458</v>
+      </c>
+      <c r="L9">
+        <v>7271</v>
+      </c>
+      <c r="M9">
+        <v>-1.1200000000000001</v>
+      </c>
+      <c r="N9">
+        <v>-0.91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>98</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>981</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10">
+        <v>723274</v>
+      </c>
+      <c r="G10">
+        <v>-400</v>
+      </c>
+      <c r="H10">
+        <v>1515</v>
+      </c>
+      <c r="I10">
+        <v>1714</v>
+      </c>
+      <c r="J10">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="K10">
+        <v>7389</v>
+      </c>
+      <c r="L10">
+        <v>7590</v>
+      </c>
+      <c r="M10">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="N10">
+        <v>-0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>98</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>982</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11">
+        <v>723065</v>
+      </c>
+      <c r="G11">
+        <v>-209</v>
+      </c>
+      <c r="H11">
+        <v>1252</v>
+      </c>
+      <c r="I11">
+        <v>1559</v>
+      </c>
+      <c r="J11">
+        <v>-0.42</v>
+      </c>
+      <c r="K11">
+        <v>7438</v>
+      </c>
+      <c r="L11">
+        <v>7340</v>
+      </c>
+      <c r="M11">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N11">
+        <v>-0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>98</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>983</v>
+      </c>
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12">
+        <v>722607</v>
+      </c>
+      <c r="G12">
+        <v>-458</v>
+      </c>
+      <c r="H12">
+        <v>1492</v>
+      </c>
+      <c r="I12">
+        <v>1564</v>
+      </c>
+      <c r="J12">
+        <v>-0.1</v>
+      </c>
+      <c r="K12">
+        <v>6710</v>
+      </c>
+      <c r="L12">
+        <v>7096</v>
+      </c>
+      <c r="M12">
+        <v>-0.53</v>
+      </c>
+      <c r="N12">
+        <v>-0.63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>98</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>984</v>
+      </c>
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13">
+        <v>722795</v>
+      </c>
+      <c r="G13">
+        <v>188</v>
+      </c>
+      <c r="H13">
+        <v>1707</v>
+      </c>
+      <c r="I13">
+        <v>1609</v>
+      </c>
+      <c r="J13">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K13">
+        <v>6248</v>
+      </c>
+      <c r="L13">
+        <v>6158</v>
+      </c>
+      <c r="M13">
+        <v>0.12</v>
+      </c>
+      <c r="N13">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>99</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>991</v>
+      </c>
+      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14">
+        <v>721784</v>
+      </c>
+      <c r="G14">
+        <v>-1011</v>
+      </c>
+      <c r="H14">
+        <v>1252</v>
+      </c>
+      <c r="I14">
+        <v>1663</v>
+      </c>
+      <c r="J14">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="K14">
+        <v>6644</v>
+      </c>
+      <c r="L14">
+        <v>7244</v>
+      </c>
+      <c r="M14">
+        <v>-0.83</v>
+      </c>
+      <c r="N14">
+        <v>-1.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>99</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>992</v>
+      </c>
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15">
+        <v>718671</v>
+      </c>
+      <c r="G15">
+        <v>-3113</v>
+      </c>
+      <c r="H15">
+        <v>1184</v>
+      </c>
+      <c r="I15">
+        <v>1479</v>
+      </c>
+      <c r="J15">
+        <v>-0.41</v>
+      </c>
+      <c r="K15">
+        <v>6109</v>
+      </c>
+      <c r="L15">
+        <v>8927</v>
+      </c>
+      <c r="M15">
+        <v>-3.92</v>
+      </c>
+      <c r="N15">
+        <v>-4.33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>99</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>993</v>
+      </c>
+      <c r="E16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16">
+        <v>718054</v>
+      </c>
+      <c r="G16">
+        <v>-617</v>
+      </c>
+      <c r="H16">
+        <v>1246</v>
+      </c>
+      <c r="I16">
+        <v>1555</v>
+      </c>
+      <c r="J16">
+        <v>-0.43</v>
+      </c>
+      <c r="K16">
+        <v>7741</v>
+      </c>
+      <c r="L16">
+        <v>8049</v>
+      </c>
+      <c r="M16">
+        <v>-0.43</v>
+      </c>
+      <c r="N16">
+        <v>-0.86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>99</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>994</v>
+      </c>
+      <c r="E17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17">
+        <v>717653</v>
+      </c>
+      <c r="G17">
+        <v>-401</v>
+      </c>
+      <c r="H17">
+        <v>1375</v>
+      </c>
+      <c r="I17">
+        <v>1582</v>
+      </c>
+      <c r="J17">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="K17">
+        <v>5563</v>
+      </c>
+      <c r="L17">
+        <v>5757</v>
+      </c>
+      <c r="M17">
+        <v>-0.27</v>
+      </c>
+      <c r="N17">
+        <v>-0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>100</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1001</v>
+      </c>
+      <c r="E18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18">
+        <v>716457</v>
+      </c>
+      <c r="G18">
+        <v>3102</v>
+      </c>
+      <c r="H18">
+        <v>1299</v>
+      </c>
+      <c r="I18">
+        <v>1729</v>
+      </c>
+      <c r="J18">
+        <v>-0.6</v>
+      </c>
+      <c r="K18">
+        <v>5717</v>
+      </c>
+      <c r="L18">
+        <v>2185</v>
+      </c>
+      <c r="M18">
+        <v>4.93</v>
+      </c>
+      <c r="N18">
+        <v>4.33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>100</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>1002</v>
+      </c>
+      <c r="E19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19">
+        <v>715288</v>
+      </c>
+      <c r="G19">
+        <v>3360</v>
+      </c>
+      <c r="H19">
+        <v>1334</v>
+      </c>
+      <c r="I19">
+        <v>1656</v>
+      </c>
+      <c r="J19">
+        <v>-0.45</v>
+      </c>
+      <c r="K19">
+        <v>6271</v>
+      </c>
+      <c r="L19">
+        <v>2589</v>
+      </c>
+      <c r="M19">
+        <v>5.15</v>
+      </c>
+      <c r="N19">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>100</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>1003</v>
+      </c>
+      <c r="E20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20">
+        <v>714245</v>
+      </c>
+      <c r="G20">
+        <v>3535</v>
+      </c>
+      <c r="H20">
+        <v>1333</v>
+      </c>
+      <c r="I20">
+        <v>1498</v>
+      </c>
+      <c r="J20">
+        <v>-0.23</v>
+      </c>
+      <c r="K20">
+        <v>5980</v>
+      </c>
+      <c r="L20">
+        <v>2280</v>
+      </c>
+      <c r="M20">
+        <v>5.18</v>
+      </c>
+      <c r="N20">
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>100</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>1004</v>
+      </c>
+      <c r="E21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21">
+        <v>713556</v>
+      </c>
+      <c r="G21">
+        <v>-689</v>
+      </c>
+      <c r="H21">
+        <v>1476</v>
+      </c>
+      <c r="I21">
+        <v>1595</v>
+      </c>
+      <c r="J21">
+        <v>-0.17</v>
+      </c>
+      <c r="K21">
+        <v>4806</v>
+      </c>
+      <c r="L21">
+        <v>5376</v>
+      </c>
+      <c r="M21">
+        <v>-0.8</v>
+      </c>
+      <c r="N21">
+        <v>-0.97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>101</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1011</v>
+      </c>
+      <c r="E22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22">
+        <v>712747</v>
+      </c>
+      <c r="G22">
+        <v>-809</v>
+      </c>
+      <c r="H22">
+        <v>1414</v>
+      </c>
+      <c r="I22">
+        <v>1865</v>
+      </c>
+      <c r="J22">
+        <v>-0.63</v>
+      </c>
+      <c r="K22">
+        <v>6096</v>
+      </c>
+      <c r="L22">
+        <v>6454</v>
+      </c>
+      <c r="M22">
+        <v>-0.5</v>
+      </c>
+      <c r="N22">
+        <v>-1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>101</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>1012</v>
+      </c>
+      <c r="E23" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23">
+        <v>711887</v>
+      </c>
+      <c r="G23">
+        <v>-1669</v>
+      </c>
+      <c r="H23">
+        <v>2853</v>
+      </c>
+      <c r="I23">
+        <v>3484</v>
+      </c>
+      <c r="J23">
+        <v>-0.89</v>
+      </c>
+      <c r="K23">
+        <v>12352</v>
+      </c>
+      <c r="L23">
+        <v>13390</v>
+      </c>
+      <c r="M23">
+        <v>-1.46</v>
+      </c>
+      <c r="N23">
+        <v>-2.34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>101</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>1013</v>
+      </c>
+      <c r="E24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24">
+        <v>711041</v>
+      </c>
+      <c r="G24">
+        <v>-2515</v>
+      </c>
+      <c r="H24">
+        <v>4297</v>
+      </c>
+      <c r="I24">
+        <v>5056</v>
+      </c>
+      <c r="J24">
+        <v>-1.07</v>
+      </c>
+      <c r="K24">
+        <v>18462</v>
+      </c>
+      <c r="L24">
+        <v>20218</v>
+      </c>
+      <c r="M24">
+        <v>-2.4700000000000002</v>
+      </c>
+      <c r="N24">
+        <v>-3.53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>101</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>1014</v>
+      </c>
+      <c r="E25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25">
+        <v>710991</v>
+      </c>
+      <c r="G25">
+        <v>-50</v>
+      </c>
+      <c r="H25">
+        <v>1870</v>
+      </c>
+      <c r="I25">
+        <v>1624</v>
+      </c>
+      <c r="J25">
+        <v>0.35</v>
+      </c>
+      <c r="K25">
+        <v>4735</v>
+      </c>
+      <c r="L25">
+        <v>5031</v>
+      </c>
+      <c r="M25">
+        <v>-0.42</v>
+      </c>
+      <c r="N25">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>102</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1021</v>
+      </c>
+      <c r="E26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26">
+        <v>710269</v>
+      </c>
+      <c r="G26">
+        <v>-722</v>
+      </c>
+      <c r="H26">
+        <v>1413</v>
+      </c>
+      <c r="I26">
+        <v>1758</v>
+      </c>
+      <c r="J26">
+        <v>-0.49</v>
+      </c>
+      <c r="K26">
+        <v>5363</v>
+      </c>
+      <c r="L26">
+        <v>5740</v>
+      </c>
+      <c r="M26">
+        <v>-0.53</v>
+      </c>
+      <c r="N26">
+        <v>-1.02</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>102</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>1022</v>
+      </c>
+      <c r="E27" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="1">
+        <v>709491</v>
+      </c>
+      <c r="G27">
+        <v>-778</v>
+      </c>
+      <c r="H27" s="1">
+        <v>1138</v>
+      </c>
+      <c r="I27" s="1">
+        <v>1630</v>
+      </c>
+      <c r="J27">
+        <v>-0.69</v>
+      </c>
+      <c r="K27" s="1">
+        <v>6228</v>
+      </c>
+      <c r="L27" s="1">
+        <v>6514</v>
+      </c>
+      <c r="M27">
+        <v>-0.4</v>
+      </c>
+      <c r="N27">
+        <v>-1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>102</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>1023</v>
+      </c>
+      <c r="E28" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" s="1">
+        <v>708574</v>
+      </c>
+      <c r="G28">
+        <v>-917</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1222</v>
+      </c>
+      <c r="I28" s="1">
+        <v>1736</v>
+      </c>
+      <c r="J28">
+        <v>-0.73</v>
+      </c>
+      <c r="K28" s="1">
+        <v>5744</v>
+      </c>
+      <c r="L28" s="1">
+        <v>6147</v>
+      </c>
+      <c r="M28">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="N28">
+        <v>-1.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>102</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <v>1024</v>
+      </c>
+      <c r="E29" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="1">
+        <v>707792</v>
+      </c>
+      <c r="G29">
+        <v>-782</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1353</v>
+      </c>
+      <c r="I29" s="1">
+        <v>1701</v>
+      </c>
+      <c r="J29">
+        <v>-0.49</v>
+      </c>
+      <c r="K29" s="1">
+        <v>4919</v>
+      </c>
+      <c r="L29" s="1">
+        <v>5353</v>
+      </c>
+      <c r="M29">
+        <v>-0.61</v>
+      </c>
+      <c r="N29">
+        <v>-1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>103</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1031</v>
+      </c>
+      <c r="E30" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" s="1">
+        <v>706958</v>
+      </c>
+      <c r="G30">
+        <v>-834</v>
+      </c>
+      <c r="H30" s="1">
+        <v>1217</v>
+      </c>
+      <c r="I30" s="1">
+        <v>1922</v>
+      </c>
+      <c r="J30">
+        <v>-1</v>
+      </c>
+      <c r="K30" s="1">
+        <v>5751</v>
+      </c>
+      <c r="L30" s="1">
+        <v>5880</v>
+      </c>
+      <c r="M30">
+        <v>-0.18</v>
+      </c>
+      <c r="N30">
+        <v>-1.18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>103</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>1032</v>
+      </c>
+      <c r="E31" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" s="1">
+        <v>707282</v>
+      </c>
+      <c r="G31" s="1">
+        <v>2622</v>
+      </c>
+      <c r="H31" s="1">
+        <v>1278</v>
+      </c>
+      <c r="I31" s="1">
+        <v>1790</v>
+      </c>
+      <c r="J31">
+        <v>-0.72</v>
+      </c>
+      <c r="K31" s="1">
+        <v>8151</v>
+      </c>
+      <c r="L31" s="1">
+        <v>5017</v>
+      </c>
+      <c r="M31">
+        <v>4.43</v>
+      </c>
+      <c r="N31">
+        <v>3.71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>103</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>1033</v>
+      </c>
+      <c r="E32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="1">
+        <v>706688</v>
+      </c>
+      <c r="G32">
+        <v>-594</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1370</v>
+      </c>
+      <c r="I32" s="1">
+        <v>1732</v>
+      </c>
+      <c r="J32">
+        <v>-0.51</v>
+      </c>
+      <c r="K32" s="1">
+        <v>5756</v>
+      </c>
+      <c r="L32" s="1">
+        <v>5988</v>
+      </c>
+      <c r="M32">
+        <v>-0.33</v>
+      </c>
+      <c r="N32">
+        <v>-0.84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>103</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <v>1034</v>
+      </c>
+      <c r="E33" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" s="1">
+        <v>705356</v>
+      </c>
+      <c r="G33" s="1">
+        <v>-1332</v>
+      </c>
+      <c r="H33" s="1">
+        <v>1473</v>
+      </c>
+      <c r="I33" s="1">
+        <v>1671</v>
+      </c>
+      <c r="J33">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="K33" s="1">
+        <v>4661</v>
+      </c>
+      <c r="L33" s="1">
+        <v>5795</v>
+      </c>
+      <c r="M33">
+        <v>-1.61</v>
+      </c>
+      <c r="N33">
+        <v>-1.89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>104</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1041</v>
+      </c>
+      <c r="E34" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" s="1">
+        <v>703407</v>
+      </c>
+      <c r="G34" s="1">
+        <v>-1949</v>
+      </c>
+      <c r="H34" s="1">
+        <v>1276</v>
+      </c>
+      <c r="I34" s="1">
+        <v>1789</v>
+      </c>
+      <c r="J34">
+        <v>-0.73</v>
+      </c>
+      <c r="K34" s="1">
+        <v>5264</v>
+      </c>
+      <c r="L34" s="1">
+        <v>6700</v>
+      </c>
+      <c r="M34">
+        <v>-2.04</v>
+      </c>
+      <c r="N34">
+        <v>-2.77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>104</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>1042</v>
+      </c>
+      <c r="E35" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" s="1">
+        <v>701898</v>
+      </c>
+      <c r="G35" s="1">
+        <v>-1509</v>
+      </c>
+      <c r="H35" s="1">
+        <v>1113</v>
+      </c>
+      <c r="I35" s="1">
+        <v>1672</v>
+      </c>
+      <c r="J35">
+        <v>-0.8</v>
+      </c>
+      <c r="K35" s="1">
+        <v>5773</v>
+      </c>
+      <c r="L35" s="1">
+        <v>6723</v>
+      </c>
+      <c r="M35">
+        <v>-1.35</v>
+      </c>
+      <c r="N35">
+        <v>-2.15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>104</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>1043</v>
+      </c>
+      <c r="E36" t="s">
+        <v>24</v>
+      </c>
+      <c r="F36" s="1">
+        <v>700437</v>
+      </c>
+      <c r="G36" s="1">
+        <v>-1461</v>
+      </c>
+      <c r="H36" s="1">
+        <v>1215</v>
+      </c>
+      <c r="I36" s="1">
+        <v>1681</v>
+      </c>
+      <c r="J36">
+        <v>-0.66</v>
+      </c>
+      <c r="K36" s="1">
+        <v>5453</v>
+      </c>
+      <c r="L36" s="1">
+        <v>6448</v>
+      </c>
+      <c r="M36">
+        <v>-1.42</v>
+      </c>
+      <c r="N36">
+        <v>-2.08</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>104</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="D37">
+        <v>1044</v>
+      </c>
+      <c r="E37" t="s">
+        <v>24</v>
+      </c>
+      <c r="F37" s="1">
+        <v>699633</v>
+      </c>
+      <c r="G37">
+        <v>-804</v>
+      </c>
+      <c r="H37" s="1">
+        <v>1382</v>
+      </c>
+      <c r="I37" s="1">
+        <v>1724</v>
+      </c>
+      <c r="J37">
+        <v>-0.49</v>
+      </c>
+      <c r="K37" s="1">
+        <v>4112</v>
+      </c>
+      <c r="L37" s="1">
+        <v>4574</v>
+      </c>
+      <c r="M37">
+        <v>-0.66</v>
+      </c>
+      <c r="N37">
+        <v>-1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
         <v>105</v>
       </c>
-      <c r="B2">
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1051</v>
+      </c>
+      <c r="E38" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" s="1">
+        <v>698187</v>
+      </c>
+      <c r="G38" s="1">
+        <v>-1446</v>
+      </c>
+      <c r="H38" s="1">
+        <v>1176</v>
+      </c>
+      <c r="I38" s="1">
+        <v>1969</v>
+      </c>
+      <c r="J38">
+        <v>-1.1299999999999999</v>
+      </c>
+      <c r="K38" s="1">
+        <v>4821</v>
+      </c>
+      <c r="L38" s="1">
+        <v>5474</v>
+      </c>
+      <c r="M38">
+        <v>-0.93</v>
+      </c>
+      <c r="N38">
+        <v>-2.06</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>105</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>1052</v>
+      </c>
+      <c r="E39" t="s">
+        <v>24</v>
+      </c>
+      <c r="F39" s="1">
+        <v>697105</v>
+      </c>
+      <c r="G39" s="1">
+        <v>-1082</v>
+      </c>
+      <c r="H39" s="1">
+        <v>1130</v>
+      </c>
+      <c r="I39" s="1">
+        <v>1723</v>
+      </c>
+      <c r="J39">
+        <v>-0.85</v>
+      </c>
+      <c r="K39" s="1">
+        <v>5266</v>
+      </c>
+      <c r="L39" s="1">
+        <v>5755</v>
+      </c>
+      <c r="M39">
+        <v>-0.7</v>
+      </c>
+      <c r="N39">
+        <v>-1.55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>105</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>1053</v>
+      </c>
+      <c r="E40" t="s">
+        <v>24</v>
+      </c>
+      <c r="F40" s="1">
+        <v>695925</v>
+      </c>
+      <c r="G40" s="1">
+        <v>-1180</v>
+      </c>
+      <c r="H40" s="1">
+        <v>1145</v>
+      </c>
+      <c r="I40" s="1">
+        <v>1693</v>
+      </c>
+      <c r="J40">
+        <v>-0.79</v>
+      </c>
+      <c r="K40" s="1">
+        <v>4952</v>
+      </c>
+      <c r="L40" s="1">
+        <v>5584</v>
+      </c>
+      <c r="M40">
+        <v>-0.91</v>
+      </c>
+      <c r="N40">
+        <v>-1.7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>105</v>
+      </c>
+      <c r="C41">
         <v>4</v>
       </c>
-      <c r="C2">
+      <c r="D41">
         <v>1054</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E41" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F41" s="1">
         <v>694873</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G41" s="1">
         <v>-1052</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H41" s="1">
         <v>1323</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I41" s="1">
         <v>1847</v>
       </c>
-      <c r="I2">
+      <c r="J41">
         <v>-0.75</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K41" s="1">
         <v>4236</v>
       </c>
-      <c r="K2" s="1">
+      <c r="L41" s="1">
         <v>4764</v>
       </c>
-      <c r="L2">
+      <c r="M41">
         <v>-0.76</v>
       </c>
-      <c r="M2">
+      <c r="N41">
         <v>-1.51</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>105</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>1053</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="1">
-        <v>695925</v>
-      </c>
-      <c r="F3" s="1">
-        <v>-1180</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1145</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1693</v>
-      </c>
-      <c r="I3">
-        <v>-0.79</v>
-      </c>
-      <c r="J3" s="1">
-        <v>4952</v>
-      </c>
-      <c r="K3" s="1">
-        <v>5584</v>
-      </c>
-      <c r="L3">
-        <v>-0.91</v>
-      </c>
-      <c r="M3">
-        <v>-1.7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>105</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>1052</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="1">
-        <v>697105</v>
-      </c>
-      <c r="F4" s="1">
-        <v>-1082</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1130</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1723</v>
-      </c>
-      <c r="I4">
-        <v>-0.85</v>
-      </c>
-      <c r="J4" s="1">
-        <v>5266</v>
-      </c>
-      <c r="K4" s="1">
-        <v>5755</v>
-      </c>
-      <c r="L4">
-        <v>-0.7</v>
-      </c>
-      <c r="M4">
-        <v>-1.55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>105</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1051</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="1">
-        <v>698187</v>
-      </c>
-      <c r="F5" s="1">
-        <v>-1446</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1176</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1969</v>
-      </c>
-      <c r="I5">
-        <v>-1.1299999999999999</v>
-      </c>
-      <c r="J5" s="1">
-        <v>4821</v>
-      </c>
-      <c r="K5" s="1">
-        <v>5474</v>
-      </c>
-      <c r="L5">
-        <v>-0.93</v>
-      </c>
-      <c r="M5">
-        <v>-2.06</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>104</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>1044</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="1">
-        <v>699633</v>
-      </c>
-      <c r="F6">
-        <v>-804</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1382</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1724</v>
-      </c>
-      <c r="I6">
-        <v>-0.49</v>
-      </c>
-      <c r="J6" s="1">
-        <v>4112</v>
-      </c>
-      <c r="K6" s="1">
-        <v>4574</v>
-      </c>
-      <c r="L6">
-        <v>-0.66</v>
-      </c>
-      <c r="M6">
-        <v>-1.1499999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>104</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>1043</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="1">
-        <v>700437</v>
-      </c>
-      <c r="F7" s="1">
-        <v>-1461</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1215</v>
-      </c>
-      <c r="H7" s="1">
-        <v>1681</v>
-      </c>
-      <c r="I7">
-        <v>-0.66</v>
-      </c>
-      <c r="J7" s="1">
-        <v>5453</v>
-      </c>
-      <c r="K7" s="1">
-        <v>6448</v>
-      </c>
-      <c r="L7">
-        <v>-1.42</v>
-      </c>
-      <c r="M7">
-        <v>-2.08</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>104</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>1042</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="1">
-        <v>701898</v>
-      </c>
-      <c r="F8" s="1">
-        <v>-1509</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1113</v>
-      </c>
-      <c r="H8" s="1">
-        <v>1672</v>
-      </c>
-      <c r="I8">
-        <v>-0.8</v>
-      </c>
-      <c r="J8" s="1">
-        <v>5773</v>
-      </c>
-      <c r="K8" s="1">
-        <v>6723</v>
-      </c>
-      <c r="L8">
-        <v>-1.35</v>
-      </c>
-      <c r="M8">
-        <v>-2.15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>104</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1041</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="1">
-        <v>703407</v>
-      </c>
-      <c r="F9" s="1">
-        <v>-1949</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1276</v>
-      </c>
-      <c r="H9" s="1">
-        <v>1789</v>
-      </c>
-      <c r="I9">
-        <v>-0.73</v>
-      </c>
-      <c r="J9" s="1">
-        <v>5264</v>
-      </c>
-      <c r="K9" s="1">
-        <v>6700</v>
-      </c>
-      <c r="L9">
-        <v>-2.04</v>
-      </c>
-      <c r="M9">
-        <v>-2.77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>103</v>
-      </c>
-      <c r="B10">
-        <v>4</v>
-      </c>
-      <c r="C10">
-        <v>1034</v>
-      </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="1">
-        <v>705356</v>
-      </c>
-      <c r="F10" s="1">
-        <v>-1332</v>
-      </c>
-      <c r="G10" s="1">
-        <v>1473</v>
-      </c>
-      <c r="H10" s="1">
-        <v>1671</v>
-      </c>
-      <c r="I10">
-        <v>-0.28000000000000003</v>
-      </c>
-      <c r="J10" s="1">
-        <v>4661</v>
-      </c>
-      <c r="K10" s="1">
-        <v>5795</v>
-      </c>
-      <c r="L10">
-        <v>-1.61</v>
-      </c>
-      <c r="M10">
-        <v>-1.89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>103</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11">
-        <v>1033</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="1">
-        <v>706688</v>
-      </c>
-      <c r="F11">
-        <v>-594</v>
-      </c>
-      <c r="G11" s="1">
-        <v>1370</v>
-      </c>
-      <c r="H11" s="1">
-        <v>1732</v>
-      </c>
-      <c r="I11">
-        <v>-0.51</v>
-      </c>
-      <c r="J11" s="1">
-        <v>5756</v>
-      </c>
-      <c r="K11" s="1">
-        <v>5988</v>
-      </c>
-      <c r="L11">
-        <v>-0.33</v>
-      </c>
-      <c r="M11">
-        <v>-0.84</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>103</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12">
-        <v>1032</v>
-      </c>
-      <c r="D12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="1">
-        <v>707282</v>
-      </c>
-      <c r="F12" s="1">
-        <v>2622</v>
-      </c>
-      <c r="G12" s="1">
-        <v>1278</v>
-      </c>
-      <c r="H12" s="1">
-        <v>1790</v>
-      </c>
-      <c r="I12">
-        <v>-0.72</v>
-      </c>
-      <c r="J12" s="1">
-        <v>8151</v>
-      </c>
-      <c r="K12" s="1">
-        <v>5017</v>
-      </c>
-      <c r="L12">
-        <v>4.43</v>
-      </c>
-      <c r="M12">
-        <v>3.71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>103</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>1031</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="1">
-        <v>706958</v>
-      </c>
-      <c r="F13">
-        <v>-834</v>
-      </c>
-      <c r="G13" s="1">
-        <v>1217</v>
-      </c>
-      <c r="H13" s="1">
-        <v>1922</v>
-      </c>
-      <c r="I13">
-        <v>-1</v>
-      </c>
-      <c r="J13" s="1">
-        <v>5751</v>
-      </c>
-      <c r="K13" s="1">
-        <v>5880</v>
-      </c>
-      <c r="L13">
-        <v>-0.18</v>
-      </c>
-      <c r="M13">
-        <v>-1.18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>102</v>
-      </c>
-      <c r="B14">
-        <v>4</v>
-      </c>
-      <c r="C14">
-        <v>1024</v>
-      </c>
-      <c r="D14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="1">
-        <v>707792</v>
-      </c>
-      <c r="F14">
-        <v>-782</v>
-      </c>
-      <c r="G14" s="1">
-        <v>1353</v>
-      </c>
-      <c r="H14" s="1">
-        <v>1701</v>
-      </c>
-      <c r="I14">
-        <v>-0.49</v>
-      </c>
-      <c r="J14" s="1">
-        <v>4919</v>
-      </c>
-      <c r="K14" s="1">
-        <v>5353</v>
-      </c>
-      <c r="L14">
-        <v>-0.61</v>
-      </c>
-      <c r="M14">
-        <v>-1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>102</v>
-      </c>
-      <c r="B15">
-        <v>3</v>
-      </c>
-      <c r="C15">
-        <v>1023</v>
-      </c>
-      <c r="D15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="1">
-        <v>708574</v>
-      </c>
-      <c r="F15">
-        <v>-917</v>
-      </c>
-      <c r="G15" s="1">
-        <v>1222</v>
-      </c>
-      <c r="H15" s="1">
-        <v>1736</v>
-      </c>
-      <c r="I15">
-        <v>-0.73</v>
-      </c>
-      <c r="J15" s="1">
-        <v>5744</v>
-      </c>
-      <c r="K15" s="1">
-        <v>6147</v>
-      </c>
-      <c r="L15">
-        <v>-0.56999999999999995</v>
-      </c>
-      <c r="M15">
-        <v>-1.3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>102</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16">
-        <v>1022</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="1">
-        <v>709491</v>
-      </c>
-      <c r="F16">
-        <v>-778</v>
-      </c>
-      <c r="G16" s="1">
-        <v>1138</v>
-      </c>
-      <c r="H16" s="1">
-        <v>1630</v>
-      </c>
-      <c r="I16">
-        <v>-0.69</v>
-      </c>
-      <c r="J16" s="1">
-        <v>6228</v>
-      </c>
-      <c r="K16" s="1">
-        <v>6514</v>
-      </c>
-      <c r="L16">
-        <v>-0.4</v>
-      </c>
-      <c r="M16">
-        <v>-1.0900000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>102</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>1021</v>
-      </c>
-      <c r="D17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17">
-        <v>710269</v>
-      </c>
-      <c r="F17">
-        <v>-722</v>
-      </c>
-      <c r="G17">
-        <v>1413</v>
-      </c>
-      <c r="H17">
-        <v>1758</v>
-      </c>
-      <c r="I17">
-        <v>-0.49</v>
-      </c>
-      <c r="J17">
-        <v>5363</v>
-      </c>
-      <c r="K17">
-        <v>5740</v>
-      </c>
-      <c r="L17">
-        <v>-0.53</v>
-      </c>
-      <c r="M17">
-        <v>-1.02</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>101</v>
-      </c>
-      <c r="B18">
-        <v>4</v>
-      </c>
-      <c r="C18">
-        <v>1014</v>
-      </c>
-      <c r="D18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18">
-        <v>710991</v>
-      </c>
-      <c r="F18">
-        <v>-50</v>
-      </c>
-      <c r="G18">
-        <v>1870</v>
-      </c>
-      <c r="H18">
-        <v>1624</v>
-      </c>
-      <c r="I18">
-        <v>0.35</v>
-      </c>
-      <c r="J18">
-        <v>4735</v>
-      </c>
-      <c r="K18">
-        <v>5031</v>
-      </c>
-      <c r="L18">
-        <v>-0.42</v>
-      </c>
-      <c r="M18">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>101</v>
-      </c>
-      <c r="B19">
-        <v>3</v>
-      </c>
-      <c r="C19">
-        <v>1013</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19">
-        <v>711041</v>
-      </c>
-      <c r="F19">
-        <v>-2515</v>
-      </c>
-      <c r="G19">
-        <v>4297</v>
-      </c>
-      <c r="H19">
-        <v>5056</v>
-      </c>
-      <c r="I19">
-        <v>-1.07</v>
-      </c>
-      <c r="J19">
-        <v>18462</v>
-      </c>
-      <c r="K19">
-        <v>20218</v>
-      </c>
-      <c r="L19">
-        <v>-2.4700000000000002</v>
-      </c>
-      <c r="M19">
-        <v>-3.53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>101</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20">
-        <v>1012</v>
-      </c>
-      <c r="D20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20">
-        <v>711887</v>
-      </c>
-      <c r="F20">
-        <v>-1669</v>
-      </c>
-      <c r="G20">
-        <v>2853</v>
-      </c>
-      <c r="H20">
-        <v>3484</v>
-      </c>
-      <c r="I20">
-        <v>-0.89</v>
-      </c>
-      <c r="J20">
-        <v>12352</v>
-      </c>
-      <c r="K20">
-        <v>13390</v>
-      </c>
-      <c r="L20">
-        <v>-1.46</v>
-      </c>
-      <c r="M20">
-        <v>-2.34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>101</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>1011</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>712747</v>
-      </c>
-      <c r="F21">
-        <v>-809</v>
-      </c>
-      <c r="G21">
-        <v>1414</v>
-      </c>
-      <c r="H21">
-        <v>1865</v>
-      </c>
-      <c r="I21">
-        <v>-0.63</v>
-      </c>
-      <c r="J21">
-        <v>6096</v>
-      </c>
-      <c r="K21">
-        <v>6454</v>
-      </c>
-      <c r="L21">
-        <v>-0.5</v>
-      </c>
-      <c r="M21">
-        <v>-1.1399999999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>100</v>
-      </c>
-      <c r="B22">
-        <v>4</v>
-      </c>
-      <c r="C22">
-        <v>1004</v>
-      </c>
-      <c r="D22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22">
-        <v>713556</v>
-      </c>
-      <c r="F22">
-        <v>-689</v>
-      </c>
-      <c r="G22">
-        <v>1476</v>
-      </c>
-      <c r="H22">
-        <v>1595</v>
-      </c>
-      <c r="I22">
-        <v>-0.17</v>
-      </c>
-      <c r="J22">
-        <v>4806</v>
-      </c>
-      <c r="K22">
-        <v>5376</v>
-      </c>
-      <c r="L22">
-        <v>-0.8</v>
-      </c>
-      <c r="M22">
-        <v>-0.97</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>100</v>
-      </c>
-      <c r="B23">
-        <v>3</v>
-      </c>
-      <c r="C23">
-        <v>1003</v>
-      </c>
-      <c r="D23" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23">
-        <v>714245</v>
-      </c>
-      <c r="F23">
-        <v>3535</v>
-      </c>
-      <c r="G23">
-        <v>1333</v>
-      </c>
-      <c r="H23">
-        <v>1498</v>
-      </c>
-      <c r="I23">
-        <v>-0.23</v>
-      </c>
-      <c r="J23">
-        <v>5980</v>
-      </c>
-      <c r="K23">
-        <v>2280</v>
-      </c>
-      <c r="L23">
-        <v>5.18</v>
-      </c>
-      <c r="M23">
-        <v>4.95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>100</v>
-      </c>
-      <c r="B24">
-        <v>2</v>
-      </c>
-      <c r="C24">
-        <v>1002</v>
-      </c>
-      <c r="D24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24">
-        <v>715288</v>
-      </c>
-      <c r="F24">
-        <v>3360</v>
-      </c>
-      <c r="G24">
-        <v>1334</v>
-      </c>
-      <c r="H24">
-        <v>1656</v>
-      </c>
-      <c r="I24">
-        <v>-0.45</v>
-      </c>
-      <c r="J24">
-        <v>6271</v>
-      </c>
-      <c r="K24">
-        <v>2589</v>
-      </c>
-      <c r="L24">
-        <v>5.15</v>
-      </c>
-      <c r="M24">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>100</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <v>1001</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25">
-        <v>716457</v>
-      </c>
-      <c r="F25">
-        <v>3102</v>
-      </c>
-      <c r="G25">
-        <v>1299</v>
-      </c>
-      <c r="H25">
-        <v>1729</v>
-      </c>
-      <c r="I25">
-        <v>-0.6</v>
-      </c>
-      <c r="J25">
-        <v>5717</v>
-      </c>
-      <c r="K25">
-        <v>2185</v>
-      </c>
-      <c r="L25">
-        <v>4.93</v>
-      </c>
-      <c r="M25">
-        <v>4.33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>99</v>
-      </c>
-      <c r="B26">
-        <v>4</v>
-      </c>
-      <c r="C26">
-        <v>994</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>717653</v>
-      </c>
-      <c r="F26">
-        <v>-401</v>
-      </c>
-      <c r="G26">
-        <v>1375</v>
-      </c>
-      <c r="H26">
-        <v>1582</v>
-      </c>
-      <c r="I26">
-        <v>-0.28999999999999998</v>
-      </c>
-      <c r="J26">
-        <v>5563</v>
-      </c>
-      <c r="K26">
-        <v>5757</v>
-      </c>
-      <c r="L26">
-        <v>-0.27</v>
-      </c>
-      <c r="M26">
-        <v>-0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>99</v>
-      </c>
-      <c r="B27">
-        <v>3</v>
-      </c>
-      <c r="C27">
-        <v>993</v>
-      </c>
-      <c r="D27" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27">
-        <v>718054</v>
-      </c>
-      <c r="F27">
-        <v>-617</v>
-      </c>
-      <c r="G27">
-        <v>1246</v>
-      </c>
-      <c r="H27">
-        <v>1555</v>
-      </c>
-      <c r="I27">
-        <v>-0.43</v>
-      </c>
-      <c r="J27">
-        <v>7741</v>
-      </c>
-      <c r="K27">
-        <v>8049</v>
-      </c>
-      <c r="L27">
-        <v>-0.43</v>
-      </c>
-      <c r="M27">
-        <v>-0.86</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>99</v>
-      </c>
-      <c r="B28">
-        <v>2</v>
-      </c>
-      <c r="C28">
-        <v>992</v>
-      </c>
-      <c r="D28" t="s">
-        <v>24</v>
-      </c>
-      <c r="E28">
-        <v>718671</v>
-      </c>
-      <c r="F28">
-        <v>-3113</v>
-      </c>
-      <c r="G28">
-        <v>1184</v>
-      </c>
-      <c r="H28">
-        <v>1479</v>
-      </c>
-      <c r="I28">
-        <v>-0.41</v>
-      </c>
-      <c r="J28">
-        <v>6109</v>
-      </c>
-      <c r="K28">
-        <v>8927</v>
-      </c>
-      <c r="L28">
-        <v>-3.92</v>
-      </c>
-      <c r="M28">
-        <v>-4.33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>99</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29">
-        <v>991</v>
-      </c>
-      <c r="D29" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29">
-        <v>721784</v>
-      </c>
-      <c r="F29">
-        <v>-1011</v>
-      </c>
-      <c r="G29">
-        <v>1252</v>
-      </c>
-      <c r="H29">
-        <v>1663</v>
-      </c>
-      <c r="I29">
-        <v>-0.56999999999999995</v>
-      </c>
-      <c r="J29">
-        <v>6644</v>
-      </c>
-      <c r="K29">
-        <v>7244</v>
-      </c>
-      <c r="L29">
-        <v>-0.83</v>
-      </c>
-      <c r="M29">
-        <v>-1.4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>98</v>
-      </c>
-      <c r="B30">
-        <v>4</v>
-      </c>
-      <c r="C30">
-        <v>984</v>
-      </c>
-      <c r="D30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30">
-        <v>722795</v>
-      </c>
-      <c r="F30">
-        <v>188</v>
-      </c>
-      <c r="G30">
-        <v>1707</v>
-      </c>
-      <c r="H30">
-        <v>1609</v>
-      </c>
-      <c r="I30">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="J30">
-        <v>6248</v>
-      </c>
-      <c r="K30">
-        <v>6158</v>
-      </c>
-      <c r="L30">
-        <v>0.12</v>
-      </c>
-      <c r="M30">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>98</v>
-      </c>
-      <c r="B31">
-        <v>3</v>
-      </c>
-      <c r="C31">
-        <v>983</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31">
-        <v>722607</v>
-      </c>
-      <c r="F31">
-        <v>-458</v>
-      </c>
-      <c r="G31">
-        <v>1492</v>
-      </c>
-      <c r="H31">
-        <v>1564</v>
-      </c>
-      <c r="I31">
-        <v>-0.1</v>
-      </c>
-      <c r="J31">
-        <v>6710</v>
-      </c>
-      <c r="K31">
-        <v>7096</v>
-      </c>
-      <c r="L31">
-        <v>-0.53</v>
-      </c>
-      <c r="M31">
-        <v>-0.63</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>98</v>
-      </c>
-      <c r="B32">
-        <v>2</v>
-      </c>
-      <c r="C32">
-        <v>982</v>
-      </c>
-      <c r="D32" t="s">
-        <v>24</v>
-      </c>
-      <c r="E32">
-        <v>723065</v>
-      </c>
-      <c r="F32">
-        <v>-209</v>
-      </c>
-      <c r="G32">
-        <v>1252</v>
-      </c>
-      <c r="H32">
-        <v>1559</v>
-      </c>
-      <c r="I32">
-        <v>-0.42</v>
-      </c>
-      <c r="J32">
-        <v>7438</v>
-      </c>
-      <c r="K32">
-        <v>7340</v>
-      </c>
-      <c r="L32">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="M32">
-        <v>-0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>98</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33">
-        <v>981</v>
-      </c>
-      <c r="D33" t="s">
-        <v>24</v>
-      </c>
-      <c r="E33">
-        <v>723274</v>
-      </c>
-      <c r="F33">
-        <v>-400</v>
-      </c>
-      <c r="G33">
-        <v>1515</v>
-      </c>
-      <c r="H33">
-        <v>1714</v>
-      </c>
-      <c r="I33">
-        <v>-0.28000000000000003</v>
-      </c>
-      <c r="J33">
-        <v>7389</v>
-      </c>
-      <c r="K33">
-        <v>7590</v>
-      </c>
-      <c r="L33">
-        <v>-0.28000000000000003</v>
-      </c>
-      <c r="M33">
-        <v>-0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>97</v>
-      </c>
-      <c r="B34">
-        <v>4</v>
-      </c>
-      <c r="C34">
-        <v>974</v>
-      </c>
-      <c r="D34" t="s">
-        <v>24</v>
-      </c>
-      <c r="E34">
-        <v>723674</v>
-      </c>
-      <c r="F34">
-        <v>-660</v>
-      </c>
-      <c r="G34">
-        <v>1780</v>
-      </c>
-      <c r="H34">
-        <v>1627</v>
-      </c>
-      <c r="I34">
-        <v>0.21</v>
-      </c>
-      <c r="J34">
-        <v>6458</v>
-      </c>
-      <c r="K34">
-        <v>7271</v>
-      </c>
-      <c r="L34">
-        <v>-1.1200000000000001</v>
-      </c>
-      <c r="M34">
-        <v>-0.91</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>97</v>
-      </c>
-      <c r="B35">
-        <v>3</v>
-      </c>
-      <c r="C35">
-        <v>973</v>
-      </c>
-      <c r="D35" t="s">
-        <v>24</v>
-      </c>
-      <c r="E35">
-        <v>724334</v>
-      </c>
-      <c r="F35">
-        <v>-903</v>
-      </c>
-      <c r="G35">
-        <v>1465</v>
-      </c>
-      <c r="H35">
-        <v>1551</v>
-      </c>
-      <c r="I35">
-        <v>-0.12</v>
-      </c>
-      <c r="J35">
-        <v>6599</v>
-      </c>
-      <c r="K35">
-        <v>7416</v>
-      </c>
-      <c r="L35">
-        <v>-1.1299999999999999</v>
-      </c>
-      <c r="M35">
-        <v>-1.25</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>97</v>
-      </c>
-      <c r="B36">
-        <v>2</v>
-      </c>
-      <c r="C36">
-        <v>972</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>725237</v>
-      </c>
-      <c r="F36">
-        <v>-141</v>
-      </c>
-      <c r="G36">
-        <v>1502</v>
-      </c>
-      <c r="H36">
-        <v>1544</v>
-      </c>
-      <c r="I36">
-        <v>-0.06</v>
-      </c>
-      <c r="J36">
-        <v>8205</v>
-      </c>
-      <c r="K36">
-        <v>8304</v>
-      </c>
-      <c r="L36">
-        <v>-0.14000000000000001</v>
-      </c>
-      <c r="M36">
-        <v>-0.2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>97</v>
-      </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37">
-        <v>971</v>
-      </c>
-      <c r="D37" t="s">
-        <v>24</v>
-      </c>
-      <c r="E37">
-        <v>725378</v>
-      </c>
-      <c r="F37">
-        <v>-294</v>
-      </c>
-      <c r="G37">
-        <v>1621</v>
-      </c>
-      <c r="H37">
-        <v>1754</v>
-      </c>
-      <c r="I37">
-        <v>-0.18</v>
-      </c>
-      <c r="J37">
-        <v>6386</v>
-      </c>
-      <c r="K37">
-        <v>6547</v>
-      </c>
-      <c r="L37">
-        <v>-0.22</v>
-      </c>
-      <c r="M37">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>96</v>
-      </c>
-      <c r="B38">
-        <v>4</v>
-      </c>
-      <c r="C38">
-        <v>964</v>
-      </c>
-      <c r="D38" t="s">
-        <v>24</v>
-      </c>
-      <c r="E38">
-        <v>725672</v>
-      </c>
-      <c r="F38">
-        <v>-277</v>
-      </c>
-      <c r="G38">
-        <v>1808</v>
-      </c>
-      <c r="H38">
-        <v>1672</v>
-      </c>
-      <c r="I38">
-        <v>0.19</v>
-      </c>
-      <c r="J38">
-        <v>4937</v>
-      </c>
-      <c r="K38">
-        <v>5350</v>
-      </c>
-      <c r="L38">
-        <v>-0.56999999999999995</v>
-      </c>
-      <c r="M38">
-        <v>-0.38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>96</v>
-      </c>
-      <c r="B39">
-        <v>3</v>
-      </c>
-      <c r="C39">
-        <v>963</v>
-      </c>
-      <c r="D39" t="s">
-        <v>24</v>
-      </c>
-      <c r="E39">
-        <v>725949</v>
-      </c>
-      <c r="F39">
-        <v>-919</v>
-      </c>
-      <c r="G39">
-        <v>1566</v>
-      </c>
-      <c r="H39">
-        <v>1550</v>
-      </c>
-      <c r="I39">
-        <v>0.02</v>
-      </c>
-      <c r="J39">
-        <v>6609</v>
-      </c>
-      <c r="K39">
-        <v>7544</v>
-      </c>
-      <c r="L39">
-        <v>-1.29</v>
-      </c>
-      <c r="M39">
-        <v>-1.27</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>96</v>
-      </c>
-      <c r="B40">
-        <v>2</v>
-      </c>
-      <c r="C40">
-        <v>962</v>
-      </c>
-      <c r="D40" t="s">
-        <v>24</v>
-      </c>
-      <c r="E40">
-        <v>726868</v>
-      </c>
-      <c r="F40">
-        <v>-578</v>
-      </c>
-      <c r="G40">
-        <v>1452</v>
-      </c>
-      <c r="H40">
-        <v>1532</v>
-      </c>
-      <c r="I40">
-        <v>-0.11</v>
-      </c>
-      <c r="J40">
-        <v>7732</v>
-      </c>
-      <c r="K40">
-        <v>8230</v>
-      </c>
-      <c r="L40">
-        <v>-0.69</v>
-      </c>
-      <c r="M40">
-        <v>-0.8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>96</v>
-      </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41">
-        <v>961</v>
-      </c>
-      <c r="D41" t="s">
-        <v>24</v>
-      </c>
-      <c r="E41">
-        <v>727446</v>
-      </c>
-      <c r="F41">
-        <v>-1044</v>
-      </c>
-      <c r="G41">
-        <v>1674</v>
-      </c>
-      <c r="H41">
-        <v>1746</v>
-      </c>
-      <c r="I41">
-        <v>-0.1</v>
-      </c>
-      <c r="J41">
-        <v>5995</v>
-      </c>
-      <c r="K41">
-        <v>6967</v>
-      </c>
-      <c r="L41">
-        <v>-1.34</v>
-      </c>
-      <c r="M41">
-        <v>-1.44</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState ref="B2:N41">
+    <sortCondition ref="D1"/>
+  </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -44226,1699 +44360,1825 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>37</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>96</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>961</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2">
+        <v>552819</v>
+      </c>
+      <c r="G2">
+        <v>-1022</v>
+      </c>
+      <c r="H2">
+        <v>1247</v>
+      </c>
+      <c r="I2">
+        <v>1248</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>4780</v>
+      </c>
+      <c r="L2">
+        <v>5801</v>
+      </c>
+      <c r="M2">
+        <v>-1.85</v>
+      </c>
+      <c r="N2">
+        <v>-1.85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>96</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>962</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3">
+        <v>551993</v>
+      </c>
+      <c r="G3">
+        <v>-826</v>
+      </c>
+      <c r="H3">
+        <v>1108</v>
+      </c>
+      <c r="I3">
+        <v>1170</v>
+      </c>
+      <c r="J3">
+        <v>-0.11</v>
+      </c>
+      <c r="K3">
+        <v>5583</v>
+      </c>
+      <c r="L3">
+        <v>6347</v>
+      </c>
+      <c r="M3">
+        <v>-1.38</v>
+      </c>
+      <c r="N3">
+        <v>-1.49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>96</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>963</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4">
+        <v>551498</v>
+      </c>
+      <c r="G4">
+        <v>-495</v>
+      </c>
+      <c r="H4">
+        <v>1170</v>
+      </c>
+      <c r="I4">
+        <v>1102</v>
+      </c>
+      <c r="J4">
+        <v>0.12</v>
+      </c>
+      <c r="K4">
+        <v>5508</v>
+      </c>
+      <c r="L4">
+        <v>6071</v>
+      </c>
+      <c r="M4">
+        <v>-1.02</v>
+      </c>
+      <c r="N4">
+        <v>-0.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>96</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>964</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5">
+        <v>551345</v>
+      </c>
+      <c r="G5">
+        <v>-153</v>
+      </c>
+      <c r="H5">
+        <v>1349</v>
+      </c>
+      <c r="I5">
+        <v>1200</v>
+      </c>
+      <c r="J5">
+        <v>0.27</v>
+      </c>
+      <c r="K5">
+        <v>3994</v>
+      </c>
+      <c r="L5">
+        <v>4296</v>
+      </c>
+      <c r="M5">
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="N5">
+        <v>-0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>97</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>971</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6">
+        <v>550344</v>
+      </c>
+      <c r="G6">
+        <v>-1001</v>
+      </c>
+      <c r="H6">
+        <v>1233</v>
+      </c>
+      <c r="I6">
+        <v>1395</v>
+      </c>
+      <c r="J6">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="K6">
+        <v>4475</v>
+      </c>
+      <c r="L6">
+        <v>5314</v>
+      </c>
+      <c r="M6">
+        <v>-1.52</v>
+      </c>
+      <c r="N6">
+        <v>-1.81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>97</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>972</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7">
+        <v>549265</v>
+      </c>
+      <c r="G7">
+        <v>-1079</v>
+      </c>
+      <c r="H7">
+        <v>1082</v>
+      </c>
+      <c r="I7">
+        <v>1186</v>
+      </c>
+      <c r="J7">
+        <v>-0.19</v>
+      </c>
+      <c r="K7">
+        <v>5619</v>
+      </c>
+      <c r="L7">
+        <v>6594</v>
+      </c>
+      <c r="M7">
+        <v>-1.78</v>
+      </c>
+      <c r="N7">
+        <v>-1.97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>97</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>973</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8">
+        <v>548652</v>
+      </c>
+      <c r="G8">
+        <v>-613</v>
+      </c>
+      <c r="H8">
+        <v>1042</v>
+      </c>
+      <c r="I8">
+        <v>1080</v>
+      </c>
+      <c r="J8">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="K8">
+        <v>5300</v>
+      </c>
+      <c r="L8">
+        <v>5875</v>
+      </c>
+      <c r="M8">
+        <v>-1.05</v>
+      </c>
+      <c r="N8">
+        <v>-1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>97</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>974</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9">
+        <v>548731</v>
+      </c>
+      <c r="G9">
+        <v>79</v>
+      </c>
+      <c r="H9">
+        <v>1308</v>
+      </c>
+      <c r="I9">
+        <v>1303</v>
+      </c>
+      <c r="J9">
+        <v>0.01</v>
+      </c>
+      <c r="K9">
+        <v>5928</v>
+      </c>
+      <c r="L9">
+        <v>5854</v>
+      </c>
+      <c r="M9">
+        <v>0.13</v>
+      </c>
+      <c r="N9">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>98</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>981</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10">
+        <v>548039</v>
+      </c>
+      <c r="G10">
+        <v>-692</v>
+      </c>
+      <c r="H10">
+        <v>1101</v>
+      </c>
+      <c r="I10">
+        <v>1242</v>
+      </c>
+      <c r="J10">
+        <v>-0.26</v>
+      </c>
+      <c r="K10">
+        <v>5841</v>
+      </c>
+      <c r="L10">
+        <v>6392</v>
+      </c>
+      <c r="M10">
+        <v>-1.01</v>
+      </c>
+      <c r="N10">
+        <v>-1.27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>98</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>982</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11">
+        <v>547550</v>
+      </c>
+      <c r="G11">
+        <v>-489</v>
+      </c>
+      <c r="H11">
+        <v>903</v>
+      </c>
+      <c r="I11">
+        <v>1087</v>
+      </c>
+      <c r="J11">
+        <v>-0.34</v>
+      </c>
+      <c r="K11">
+        <v>5960</v>
+      </c>
+      <c r="L11">
+        <v>6265</v>
+      </c>
+      <c r="M11">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="N11">
+        <v>-0.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>98</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>983</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12">
+        <v>547185</v>
+      </c>
+      <c r="G12">
+        <v>-365</v>
+      </c>
+      <c r="H12">
+        <v>1079</v>
+      </c>
+      <c r="I12">
+        <v>1216</v>
+      </c>
+      <c r="J12">
+        <v>-0.25</v>
+      </c>
+      <c r="K12">
+        <v>5809</v>
+      </c>
+      <c r="L12">
+        <v>6037</v>
+      </c>
+      <c r="M12">
+        <v>-0.42</v>
+      </c>
+      <c r="N12">
+        <v>-0.67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>98</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>984</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13">
+        <v>547716</v>
+      </c>
+      <c r="G13">
+        <v>531</v>
+      </c>
+      <c r="H13">
+        <v>1169</v>
+      </c>
+      <c r="I13">
+        <v>1214</v>
+      </c>
+      <c r="J13">
+        <v>-0.08</v>
+      </c>
+      <c r="K13">
+        <v>5220</v>
+      </c>
+      <c r="L13">
+        <v>4644</v>
+      </c>
+      <c r="M13">
+        <v>1.05</v>
+      </c>
+      <c r="N13">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>99</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>991</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14">
+        <v>546901</v>
+      </c>
+      <c r="G14">
+        <v>-815</v>
+      </c>
+      <c r="H14">
+        <v>955</v>
+      </c>
+      <c r="I14">
+        <v>1262</v>
+      </c>
+      <c r="J14">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="K14">
+        <v>5564</v>
+      </c>
+      <c r="L14">
+        <v>6072</v>
+      </c>
+      <c r="M14">
+        <v>-0.93</v>
+      </c>
+      <c r="N14">
+        <v>-1.49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>99</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>992</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15">
+        <v>544782</v>
+      </c>
+      <c r="G15">
+        <v>-2119</v>
+      </c>
+      <c r="H15">
+        <v>785</v>
+      </c>
+      <c r="I15">
+        <v>1188</v>
+      </c>
+      <c r="J15">
+        <v>-0.74</v>
+      </c>
+      <c r="K15">
+        <v>4902</v>
+      </c>
+      <c r="L15">
+        <v>6618</v>
+      </c>
+      <c r="M15">
+        <v>-3.15</v>
+      </c>
+      <c r="N15">
+        <v>-3.89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>99</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>993</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16">
+        <v>543853</v>
+      </c>
+      <c r="G16">
+        <v>-929</v>
+      </c>
+      <c r="H16">
+        <v>843</v>
+      </c>
+      <c r="I16">
+        <v>1192</v>
+      </c>
+      <c r="J16">
+        <v>-0.64</v>
+      </c>
+      <c r="K16">
+        <v>5767</v>
+      </c>
+      <c r="L16">
+        <v>6347</v>
+      </c>
+      <c r="M16">
+        <v>-1.07</v>
+      </c>
+      <c r="N16">
+        <v>-1.71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>99</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>994</v>
+      </c>
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17">
+        <v>543248</v>
+      </c>
+      <c r="G17">
+        <v>-605</v>
+      </c>
+      <c r="H17">
+        <v>902</v>
+      </c>
+      <c r="I17">
+        <v>1328</v>
+      </c>
+      <c r="J17">
+        <v>-0.78</v>
+      </c>
+      <c r="K17">
+        <v>4570</v>
+      </c>
+      <c r="L17">
+        <v>4749</v>
+      </c>
+      <c r="M17">
+        <v>-0.33</v>
+      </c>
+      <c r="N17">
+        <v>-1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>100</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1001</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18">
+        <v>541637</v>
+      </c>
+      <c r="G18">
+        <v>2587</v>
+      </c>
+      <c r="H18">
+        <v>892</v>
+      </c>
+      <c r="I18">
+        <v>1417</v>
+      </c>
+      <c r="J18">
+        <v>-0.97</v>
+      </c>
+      <c r="K18">
+        <v>4523</v>
+      </c>
+      <c r="L18">
+        <v>1411</v>
+      </c>
+      <c r="M18">
+        <v>5.75</v>
+      </c>
+      <c r="N18">
+        <v>4.78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>100</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>1002</v>
+      </c>
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19">
+        <v>540059</v>
+      </c>
+      <c r="G19">
+        <v>2863</v>
+      </c>
+      <c r="H19">
+        <v>846</v>
+      </c>
+      <c r="I19">
+        <v>1240</v>
+      </c>
+      <c r="J19">
+        <v>-0.73</v>
+      </c>
+      <c r="K19">
+        <v>4836</v>
+      </c>
+      <c r="L19">
+        <v>1579</v>
+      </c>
+      <c r="M19">
+        <v>6.03</v>
+      </c>
+      <c r="N19">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>100</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>1003</v>
+      </c>
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20">
+        <v>538779</v>
+      </c>
+      <c r="G20">
+        <v>3152</v>
+      </c>
+      <c r="H20">
+        <v>952</v>
+      </c>
+      <c r="I20">
+        <v>1181</v>
+      </c>
+      <c r="J20">
+        <v>-0.43</v>
+      </c>
+      <c r="K20">
+        <v>4718</v>
+      </c>
+      <c r="L20">
+        <v>1337</v>
+      </c>
+      <c r="M20">
+        <v>6.28</v>
+      </c>
+      <c r="N20">
+        <v>5.85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>100</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>1004</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21">
+        <v>537942</v>
+      </c>
+      <c r="G21">
+        <v>-837</v>
+      </c>
+      <c r="H21">
+        <v>887</v>
+      </c>
+      <c r="I21">
+        <v>1207</v>
+      </c>
+      <c r="J21">
+        <v>-0.59</v>
+      </c>
+      <c r="K21">
+        <v>3845</v>
+      </c>
+      <c r="L21">
+        <v>4362</v>
+      </c>
+      <c r="M21">
+        <v>-0.96</v>
+      </c>
+      <c r="N21">
+        <v>-1.56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>101</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1011</v>
+      </c>
+      <c r="E22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22">
+        <v>536373</v>
+      </c>
+      <c r="G22">
+        <v>-1569</v>
+      </c>
+      <c r="H22">
+        <v>879</v>
+      </c>
+      <c r="I22">
+        <v>1377</v>
+      </c>
+      <c r="J22">
+        <v>-0.93</v>
+      </c>
+      <c r="K22">
+        <v>4486</v>
+      </c>
+      <c r="L22">
+        <v>5557</v>
+      </c>
+      <c r="M22">
+        <v>-2</v>
+      </c>
+      <c r="N22">
+        <v>-2.93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>101</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>1012</v>
+      </c>
+      <c r="E23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23">
+        <v>535045</v>
+      </c>
+      <c r="G23">
+        <v>-2897</v>
+      </c>
+      <c r="H23">
+        <v>1834</v>
+      </c>
+      <c r="I23">
+        <v>2629</v>
+      </c>
+      <c r="J23">
+        <v>-1.48</v>
+      </c>
+      <c r="K23">
+        <v>8999</v>
+      </c>
+      <c r="L23">
+        <v>11101</v>
+      </c>
+      <c r="M23">
+        <v>-3.92</v>
+      </c>
+      <c r="N23">
+        <v>-5.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>101</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>1013</v>
+      </c>
+      <c r="E24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24">
+        <v>534178</v>
+      </c>
+      <c r="G24">
+        <v>-3754</v>
+      </c>
+      <c r="H24">
+        <v>2759</v>
+      </c>
+      <c r="I24">
+        <v>3851</v>
+      </c>
+      <c r="J24">
+        <v>-2.04</v>
+      </c>
+      <c r="K24">
+        <v>13876</v>
+      </c>
+      <c r="L24">
+        <v>16548</v>
+      </c>
+      <c r="M24">
+        <v>-4.9800000000000004</v>
+      </c>
+      <c r="N24">
+        <v>-7.02</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>101</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>1014</v>
+      </c>
+      <c r="E25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25">
+        <v>533723</v>
+      </c>
+      <c r="G25">
+        <v>-455</v>
+      </c>
+      <c r="H25">
+        <v>1130</v>
+      </c>
+      <c r="I25">
+        <v>1236</v>
+      </c>
+      <c r="J25">
+        <v>-0.2</v>
+      </c>
+      <c r="K25">
+        <v>4515</v>
+      </c>
+      <c r="L25">
+        <v>4864</v>
+      </c>
+      <c r="M25">
+        <v>-0.65</v>
+      </c>
+      <c r="N25">
+        <v>-0.85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>102</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1021</v>
+      </c>
+      <c r="E26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26">
+        <v>532541</v>
+      </c>
+      <c r="G26">
+        <v>-1182</v>
+      </c>
+      <c r="H26">
+        <v>930</v>
+      </c>
+      <c r="I26">
+        <v>1329</v>
+      </c>
+      <c r="J26">
+        <v>-0.75</v>
+      </c>
+      <c r="K26">
+        <v>4116</v>
+      </c>
+      <c r="L26">
+        <v>4899</v>
+      </c>
+      <c r="M26">
+        <v>-1.47</v>
+      </c>
+      <c r="N26">
+        <v>-2.2200000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>102</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>1022</v>
+      </c>
+      <c r="E27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="1">
+        <v>531026</v>
+      </c>
+      <c r="G27" s="1">
+        <v>-1515</v>
+      </c>
+      <c r="H27">
+        <v>709</v>
+      </c>
+      <c r="I27" s="1">
+        <v>1262</v>
+      </c>
+      <c r="J27">
+        <v>-1.04</v>
+      </c>
+      <c r="K27" s="1">
+        <v>4360</v>
+      </c>
+      <c r="L27" s="1">
+        <v>5322</v>
+      </c>
+      <c r="M27">
+        <v>-1.81</v>
+      </c>
+      <c r="N27">
+        <v>-2.85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>102</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>1023</v>
+      </c>
+      <c r="E28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="1">
+        <v>530004</v>
+      </c>
+      <c r="G28" s="1">
+        <v>-1022</v>
+      </c>
+      <c r="H28">
+        <v>744</v>
+      </c>
+      <c r="I28" s="1">
+        <v>1251</v>
+      </c>
+      <c r="J28">
+        <v>-0.96</v>
+      </c>
+      <c r="K28" s="1">
+        <v>4498</v>
+      </c>
+      <c r="L28" s="1">
+        <v>5013</v>
+      </c>
+      <c r="M28">
+        <v>-0.97</v>
+      </c>
+      <c r="N28">
+        <v>-1.93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>102</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <v>1024</v>
+      </c>
+      <c r="E29" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" s="1">
+        <v>529229</v>
+      </c>
+      <c r="G29">
+        <v>-775</v>
+      </c>
+      <c r="H29">
+        <v>747</v>
+      </c>
+      <c r="I29" s="1">
+        <v>1285</v>
+      </c>
+      <c r="J29">
+        <v>-1.02</v>
+      </c>
+      <c r="K29" s="1">
+        <v>3955</v>
+      </c>
+      <c r="L29" s="1">
+        <v>4192</v>
+      </c>
+      <c r="M29">
+        <v>-0.45</v>
+      </c>
+      <c r="N29">
+        <v>-1.47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>103</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1031</v>
+      </c>
+      <c r="E30" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" s="1">
+        <v>527721</v>
+      </c>
+      <c r="G30" s="1">
+        <v>-1508</v>
+      </c>
+      <c r="H30">
+        <v>692</v>
+      </c>
+      <c r="I30" s="1">
+        <v>1537</v>
+      </c>
+      <c r="J30">
+        <v>-1.6</v>
+      </c>
+      <c r="K30" s="1">
+        <v>4292</v>
+      </c>
+      <c r="L30" s="1">
+        <v>4955</v>
+      </c>
+      <c r="M30">
+        <v>-1.26</v>
+      </c>
+      <c r="N30">
+        <v>-2.86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>103</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>1032</v>
+      </c>
+      <c r="E31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="1">
+        <v>526936</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1061</v>
+      </c>
+      <c r="H31">
+        <v>720</v>
+      </c>
+      <c r="I31" s="1">
+        <v>1429</v>
+      </c>
+      <c r="J31">
+        <v>-1.34</v>
+      </c>
+      <c r="K31" s="1">
+        <v>5770</v>
+      </c>
+      <c r="L31" s="1">
+        <v>4000</v>
+      </c>
+      <c r="M31">
+        <v>3.36</v>
+      </c>
+      <c r="N31">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>103</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>1033</v>
+      </c>
+      <c r="E32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" s="1">
+        <v>526028</v>
+      </c>
+      <c r="G32">
+        <v>-908</v>
+      </c>
+      <c r="H32">
+        <v>737</v>
+      </c>
+      <c r="I32" s="1">
+        <v>1327</v>
+      </c>
+      <c r="J32">
+        <v>-1.1200000000000001</v>
+      </c>
+      <c r="K32" s="1">
+        <v>4279</v>
+      </c>
+      <c r="L32" s="1">
+        <v>4597</v>
+      </c>
+      <c r="M32">
+        <v>-0.6</v>
+      </c>
+      <c r="N32">
+        <v>-1.72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>103</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <v>1034</v>
+      </c>
+      <c r="E33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" s="1">
+        <v>524783</v>
+      </c>
+      <c r="G33" s="1">
+        <v>-1245</v>
+      </c>
+      <c r="H33">
+        <v>816</v>
+      </c>
+      <c r="I33" s="1">
+        <v>1298</v>
+      </c>
+      <c r="J33">
+        <v>-0.92</v>
+      </c>
+      <c r="K33" s="1">
+        <v>3476</v>
+      </c>
+      <c r="L33" s="1">
+        <v>4239</v>
+      </c>
+      <c r="M33">
+        <v>-1.45</v>
+      </c>
+      <c r="N33">
+        <v>-2.37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>104</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1041</v>
+      </c>
+      <c r="E34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" s="1">
+        <v>523162</v>
+      </c>
+      <c r="G34" s="1">
+        <v>-1621</v>
+      </c>
+      <c r="H34">
+        <v>770</v>
+      </c>
+      <c r="I34" s="1">
+        <v>1462</v>
+      </c>
+      <c r="J34">
+        <v>-1.32</v>
+      </c>
+      <c r="K34" s="1">
+        <v>4127</v>
+      </c>
+      <c r="L34" s="1">
+        <v>5056</v>
+      </c>
+      <c r="M34">
+        <v>-1.77</v>
+      </c>
+      <c r="N34">
+        <v>-3.09</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>104</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>1042</v>
+      </c>
+      <c r="E35" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" s="1">
+        <v>521591</v>
+      </c>
+      <c r="G35" s="1">
+        <v>-1571</v>
+      </c>
+      <c r="H35">
+        <v>663</v>
+      </c>
+      <c r="I35" s="1">
+        <v>1361</v>
+      </c>
+      <c r="J35">
+        <v>-1.34</v>
+      </c>
+      <c r="K35" s="1">
+        <v>4236</v>
+      </c>
+      <c r="L35" s="1">
+        <v>5109</v>
+      </c>
+      <c r="M35">
+        <v>-1.67</v>
+      </c>
+      <c r="N35">
+        <v>-3.01</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>104</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>1043</v>
+      </c>
+      <c r="E36" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" s="1">
+        <v>520670</v>
+      </c>
+      <c r="G36">
+        <v>-921</v>
+      </c>
+      <c r="H36">
+        <v>715</v>
+      </c>
+      <c r="I36" s="1">
+        <v>1319</v>
+      </c>
+      <c r="J36">
+        <v>-1.1599999999999999</v>
+      </c>
+      <c r="K36" s="1">
+        <v>4305</v>
+      </c>
+      <c r="L36" s="1">
+        <v>4622</v>
+      </c>
+      <c r="M36">
+        <v>-0.61</v>
+      </c>
+      <c r="N36">
+        <v>-1.77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>104</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="D37">
+        <v>1044</v>
+      </c>
+      <c r="E37" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" s="1">
+        <v>519839</v>
+      </c>
+      <c r="G37">
+        <v>-831</v>
+      </c>
+      <c r="H37">
+        <v>906</v>
+      </c>
+      <c r="I37" s="1">
+        <v>1281</v>
+      </c>
+      <c r="J37">
+        <v>-0.72</v>
+      </c>
+      <c r="K37" s="1">
+        <v>3153</v>
+      </c>
+      <c r="L37" s="1">
+        <v>3609</v>
+      </c>
+      <c r="M37">
+        <v>-0.88</v>
+      </c>
+      <c r="N37">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
         <v>105</v>
       </c>
-      <c r="B2">
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1051</v>
+      </c>
+      <c r="E38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" s="1">
+        <v>518507</v>
+      </c>
+      <c r="G38" s="1">
+        <v>-1332</v>
+      </c>
+      <c r="H38">
+        <v>745</v>
+      </c>
+      <c r="I38" s="1">
+        <v>1577</v>
+      </c>
+      <c r="J38">
+        <v>-1.6</v>
+      </c>
+      <c r="K38" s="1">
+        <v>3715</v>
+      </c>
+      <c r="L38" s="1">
+        <v>4215</v>
+      </c>
+      <c r="M38">
+        <v>-0.96</v>
+      </c>
+      <c r="N38">
+        <v>-2.56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>105</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>1052</v>
+      </c>
+      <c r="E39" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" s="1">
+        <v>517339</v>
+      </c>
+      <c r="G39" s="1">
+        <v>-1168</v>
+      </c>
+      <c r="H39">
+        <v>665</v>
+      </c>
+      <c r="I39" s="1">
+        <v>1430</v>
+      </c>
+      <c r="J39">
+        <v>-1.48</v>
+      </c>
+      <c r="K39" s="1">
+        <v>3917</v>
+      </c>
+      <c r="L39" s="1">
+        <v>4320</v>
+      </c>
+      <c r="M39">
+        <v>-0.78</v>
+      </c>
+      <c r="N39">
+        <v>-2.2599999999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>105</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>1053</v>
+      </c>
+      <c r="E40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" s="1">
+        <v>516531</v>
+      </c>
+      <c r="G40">
+        <v>-808</v>
+      </c>
+      <c r="H40">
+        <v>729</v>
+      </c>
+      <c r="I40" s="1">
+        <v>1311</v>
+      </c>
+      <c r="J40">
+        <v>-1.1299999999999999</v>
+      </c>
+      <c r="K40" s="1">
+        <v>4005</v>
+      </c>
+      <c r="L40" s="1">
+        <v>4231</v>
+      </c>
+      <c r="M40">
+        <v>-0.44</v>
+      </c>
+      <c r="N40">
+        <v>-1.57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>105</v>
+      </c>
+      <c r="C41">
         <v>4</v>
       </c>
-      <c r="C2">
+      <c r="D41">
         <v>1054</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E41" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F41" s="1">
         <v>515320</v>
       </c>
-      <c r="F2">
+      <c r="G41">
         <v>-1211</v>
       </c>
-      <c r="G2">
+      <c r="H41">
         <v>784</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I41" s="1">
         <v>1416</v>
       </c>
-      <c r="I2">
+      <c r="J41">
         <v>-1.23</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K41" s="1">
         <v>3375</v>
       </c>
-      <c r="K2" s="1">
+      <c r="L41" s="1">
         <v>3954</v>
       </c>
-      <c r="L2">
+      <c r="M41">
         <v>-1.1200000000000001</v>
       </c>
-      <c r="M2">
+      <c r="N41">
         <v>-2.35</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>105</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>1053</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="1">
-        <v>516531</v>
-      </c>
-      <c r="F3">
-        <v>-808</v>
-      </c>
-      <c r="G3">
-        <v>729</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1311</v>
-      </c>
-      <c r="I3">
-        <v>-1.1299999999999999</v>
-      </c>
-      <c r="J3" s="1">
-        <v>4005</v>
-      </c>
-      <c r="K3" s="1">
-        <v>4231</v>
-      </c>
-      <c r="L3">
-        <v>-0.44</v>
-      </c>
-      <c r="M3">
-        <v>-1.57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>105</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>1052</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="1">
-        <v>517339</v>
-      </c>
-      <c r="F4" s="1">
-        <v>-1168</v>
-      </c>
-      <c r="G4">
-        <v>665</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1430</v>
-      </c>
-      <c r="I4">
-        <v>-1.48</v>
-      </c>
-      <c r="J4" s="1">
-        <v>3917</v>
-      </c>
-      <c r="K4" s="1">
-        <v>4320</v>
-      </c>
-      <c r="L4">
-        <v>-0.78</v>
-      </c>
-      <c r="M4">
-        <v>-2.2599999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>105</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1051</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="1">
-        <v>518507</v>
-      </c>
-      <c r="F5" s="1">
-        <v>-1332</v>
-      </c>
-      <c r="G5">
-        <v>745</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1577</v>
-      </c>
-      <c r="I5">
-        <v>-1.6</v>
-      </c>
-      <c r="J5" s="1">
-        <v>3715</v>
-      </c>
-      <c r="K5" s="1">
-        <v>4215</v>
-      </c>
-      <c r="L5">
-        <v>-0.96</v>
-      </c>
-      <c r="M5">
-        <v>-2.56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>104</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>1044</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="1">
-        <v>519839</v>
-      </c>
-      <c r="F6">
-        <v>-831</v>
-      </c>
-      <c r="G6">
-        <v>906</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1281</v>
-      </c>
-      <c r="I6">
-        <v>-0.72</v>
-      </c>
-      <c r="J6" s="1">
-        <v>3153</v>
-      </c>
-      <c r="K6" s="1">
-        <v>3609</v>
-      </c>
-      <c r="L6">
-        <v>-0.88</v>
-      </c>
-      <c r="M6">
-        <v>-1.6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>104</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>1043</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="1">
-        <v>520670</v>
-      </c>
-      <c r="F7">
-        <v>-921</v>
-      </c>
-      <c r="G7">
-        <v>715</v>
-      </c>
-      <c r="H7" s="1">
-        <v>1319</v>
-      </c>
-      <c r="I7">
-        <v>-1.1599999999999999</v>
-      </c>
-      <c r="J7" s="1">
-        <v>4305</v>
-      </c>
-      <c r="K7" s="1">
-        <v>4622</v>
-      </c>
-      <c r="L7">
-        <v>-0.61</v>
-      </c>
-      <c r="M7">
-        <v>-1.77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>104</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>1042</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="1">
-        <v>521591</v>
-      </c>
-      <c r="F8" s="1">
-        <v>-1571</v>
-      </c>
-      <c r="G8">
-        <v>663</v>
-      </c>
-      <c r="H8" s="1">
-        <v>1361</v>
-      </c>
-      <c r="I8">
-        <v>-1.34</v>
-      </c>
-      <c r="J8" s="1">
-        <v>4236</v>
-      </c>
-      <c r="K8" s="1">
-        <v>5109</v>
-      </c>
-      <c r="L8">
-        <v>-1.67</v>
-      </c>
-      <c r="M8">
-        <v>-3.01</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>104</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1041</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="1">
-        <v>523162</v>
-      </c>
-      <c r="F9" s="1">
-        <v>-1621</v>
-      </c>
-      <c r="G9">
-        <v>770</v>
-      </c>
-      <c r="H9" s="1">
-        <v>1462</v>
-      </c>
-      <c r="I9">
-        <v>-1.32</v>
-      </c>
-      <c r="J9" s="1">
-        <v>4127</v>
-      </c>
-      <c r="K9" s="1">
-        <v>5056</v>
-      </c>
-      <c r="L9">
-        <v>-1.77</v>
-      </c>
-      <c r="M9">
-        <v>-3.09</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>103</v>
-      </c>
-      <c r="B10">
-        <v>4</v>
-      </c>
-      <c r="C10">
-        <v>1034</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="1">
-        <v>524783</v>
-      </c>
-      <c r="F10" s="1">
-        <v>-1245</v>
-      </c>
-      <c r="G10">
-        <v>816</v>
-      </c>
-      <c r="H10" s="1">
-        <v>1298</v>
-      </c>
-      <c r="I10">
-        <v>-0.92</v>
-      </c>
-      <c r="J10" s="1">
-        <v>3476</v>
-      </c>
-      <c r="K10" s="1">
-        <v>4239</v>
-      </c>
-      <c r="L10">
-        <v>-1.45</v>
-      </c>
-      <c r="M10">
-        <v>-2.37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>103</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11">
-        <v>1033</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="1">
-        <v>526028</v>
-      </c>
-      <c r="F11">
-        <v>-908</v>
-      </c>
-      <c r="G11">
-        <v>737</v>
-      </c>
-      <c r="H11" s="1">
-        <v>1327</v>
-      </c>
-      <c r="I11">
-        <v>-1.1200000000000001</v>
-      </c>
-      <c r="J11" s="1">
-        <v>4279</v>
-      </c>
-      <c r="K11" s="1">
-        <v>4597</v>
-      </c>
-      <c r="L11">
-        <v>-0.6</v>
-      </c>
-      <c r="M11">
-        <v>-1.72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>103</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12">
-        <v>1032</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="1">
-        <v>526936</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1061</v>
-      </c>
-      <c r="G12">
-        <v>720</v>
-      </c>
-      <c r="H12" s="1">
-        <v>1429</v>
-      </c>
-      <c r="I12">
-        <v>-1.34</v>
-      </c>
-      <c r="J12" s="1">
-        <v>5770</v>
-      </c>
-      <c r="K12" s="1">
-        <v>4000</v>
-      </c>
-      <c r="L12">
-        <v>3.36</v>
-      </c>
-      <c r="M12">
-        <v>2.02</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>103</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>1031</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="1">
-        <v>527721</v>
-      </c>
-      <c r="F13" s="1">
-        <v>-1508</v>
-      </c>
-      <c r="G13">
-        <v>692</v>
-      </c>
-      <c r="H13" s="1">
-        <v>1537</v>
-      </c>
-      <c r="I13">
-        <v>-1.6</v>
-      </c>
-      <c r="J13" s="1">
-        <v>4292</v>
-      </c>
-      <c r="K13" s="1">
-        <v>4955</v>
-      </c>
-      <c r="L13">
-        <v>-1.26</v>
-      </c>
-      <c r="M13">
-        <v>-2.86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>102</v>
-      </c>
-      <c r="B14">
-        <v>4</v>
-      </c>
-      <c r="C14">
-        <v>1024</v>
-      </c>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="1">
-        <v>529229</v>
-      </c>
-      <c r="F14">
-        <v>-775</v>
-      </c>
-      <c r="G14">
-        <v>747</v>
-      </c>
-      <c r="H14" s="1">
-        <v>1285</v>
-      </c>
-      <c r="I14">
-        <v>-1.02</v>
-      </c>
-      <c r="J14" s="1">
-        <v>3955</v>
-      </c>
-      <c r="K14" s="1">
-        <v>4192</v>
-      </c>
-      <c r="L14">
-        <v>-0.45</v>
-      </c>
-      <c r="M14">
-        <v>-1.47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>102</v>
-      </c>
-      <c r="B15">
-        <v>3</v>
-      </c>
-      <c r="C15">
-        <v>1023</v>
-      </c>
-      <c r="D15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="1">
-        <v>530004</v>
-      </c>
-      <c r="F15" s="1">
-        <v>-1022</v>
-      </c>
-      <c r="G15">
-        <v>744</v>
-      </c>
-      <c r="H15" s="1">
-        <v>1251</v>
-      </c>
-      <c r="I15">
-        <v>-0.96</v>
-      </c>
-      <c r="J15" s="1">
-        <v>4498</v>
-      </c>
-      <c r="K15" s="1">
-        <v>5013</v>
-      </c>
-      <c r="L15">
-        <v>-0.97</v>
-      </c>
-      <c r="M15">
-        <v>-1.93</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>102</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16">
-        <v>1022</v>
-      </c>
-      <c r="D16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="1">
-        <v>531026</v>
-      </c>
-      <c r="F16" s="1">
-        <v>-1515</v>
-      </c>
-      <c r="G16">
-        <v>709</v>
-      </c>
-      <c r="H16" s="1">
-        <v>1262</v>
-      </c>
-      <c r="I16">
-        <v>-1.04</v>
-      </c>
-      <c r="J16" s="1">
-        <v>4360</v>
-      </c>
-      <c r="K16" s="1">
-        <v>5322</v>
-      </c>
-      <c r="L16">
-        <v>-1.81</v>
-      </c>
-      <c r="M16">
-        <v>-2.85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>102</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>1021</v>
-      </c>
-      <c r="D17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17">
-        <v>532541</v>
-      </c>
-      <c r="F17">
-        <v>-1182</v>
-      </c>
-      <c r="G17">
-        <v>930</v>
-      </c>
-      <c r="H17">
-        <v>1329</v>
-      </c>
-      <c r="I17">
-        <v>-0.75</v>
-      </c>
-      <c r="J17">
-        <v>4116</v>
-      </c>
-      <c r="K17">
-        <v>4899</v>
-      </c>
-      <c r="L17">
-        <v>-1.47</v>
-      </c>
-      <c r="M17">
-        <v>-2.2200000000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>101</v>
-      </c>
-      <c r="B18">
-        <v>4</v>
-      </c>
-      <c r="C18">
-        <v>1014</v>
-      </c>
-      <c r="D18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18">
-        <v>533723</v>
-      </c>
-      <c r="F18">
-        <v>-455</v>
-      </c>
-      <c r="G18">
-        <v>1130</v>
-      </c>
-      <c r="H18">
-        <v>1236</v>
-      </c>
-      <c r="I18">
-        <v>-0.2</v>
-      </c>
-      <c r="J18">
-        <v>4515</v>
-      </c>
-      <c r="K18">
-        <v>4864</v>
-      </c>
-      <c r="L18">
-        <v>-0.65</v>
-      </c>
-      <c r="M18">
-        <v>-0.85</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>101</v>
-      </c>
-      <c r="B19">
-        <v>3</v>
-      </c>
-      <c r="C19">
-        <v>1013</v>
-      </c>
-      <c r="D19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19">
-        <v>534178</v>
-      </c>
-      <c r="F19">
-        <v>-3754</v>
-      </c>
-      <c r="G19">
-        <v>2759</v>
-      </c>
-      <c r="H19">
-        <v>3851</v>
-      </c>
-      <c r="I19">
-        <v>-2.04</v>
-      </c>
-      <c r="J19">
-        <v>13876</v>
-      </c>
-      <c r="K19">
-        <v>16548</v>
-      </c>
-      <c r="L19">
-        <v>-4.9800000000000004</v>
-      </c>
-      <c r="M19">
-        <v>-7.02</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>101</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20">
-        <v>1012</v>
-      </c>
-      <c r="D20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20">
-        <v>535045</v>
-      </c>
-      <c r="F20">
-        <v>-2897</v>
-      </c>
-      <c r="G20">
-        <v>1834</v>
-      </c>
-      <c r="H20">
-        <v>2629</v>
-      </c>
-      <c r="I20">
-        <v>-1.48</v>
-      </c>
-      <c r="J20">
-        <v>8999</v>
-      </c>
-      <c r="K20">
-        <v>11101</v>
-      </c>
-      <c r="L20">
-        <v>-3.92</v>
-      </c>
-      <c r="M20">
-        <v>-5.4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>101</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>1011</v>
-      </c>
-      <c r="D21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21">
-        <v>536373</v>
-      </c>
-      <c r="F21">
-        <v>-1569</v>
-      </c>
-      <c r="G21">
-        <v>879</v>
-      </c>
-      <c r="H21">
-        <v>1377</v>
-      </c>
-      <c r="I21">
-        <v>-0.93</v>
-      </c>
-      <c r="J21">
-        <v>4486</v>
-      </c>
-      <c r="K21">
-        <v>5557</v>
-      </c>
-      <c r="L21">
-        <v>-2</v>
-      </c>
-      <c r="M21">
-        <v>-2.93</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>100</v>
-      </c>
-      <c r="B22">
-        <v>4</v>
-      </c>
-      <c r="C22">
-        <v>1004</v>
-      </c>
-      <c r="D22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22">
-        <v>537942</v>
-      </c>
-      <c r="F22">
-        <v>-837</v>
-      </c>
-      <c r="G22">
-        <v>887</v>
-      </c>
-      <c r="H22">
-        <v>1207</v>
-      </c>
-      <c r="I22">
-        <v>-0.59</v>
-      </c>
-      <c r="J22">
-        <v>3845</v>
-      </c>
-      <c r="K22">
-        <v>4362</v>
-      </c>
-      <c r="L22">
-        <v>-0.96</v>
-      </c>
-      <c r="M22">
-        <v>-1.56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>100</v>
-      </c>
-      <c r="B23">
-        <v>3</v>
-      </c>
-      <c r="C23">
-        <v>1003</v>
-      </c>
-      <c r="D23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23">
-        <v>538779</v>
-      </c>
-      <c r="F23">
-        <v>3152</v>
-      </c>
-      <c r="G23">
-        <v>952</v>
-      </c>
-      <c r="H23">
-        <v>1181</v>
-      </c>
-      <c r="I23">
-        <v>-0.43</v>
-      </c>
-      <c r="J23">
-        <v>4718</v>
-      </c>
-      <c r="K23">
-        <v>1337</v>
-      </c>
-      <c r="L23">
-        <v>6.28</v>
-      </c>
-      <c r="M23">
-        <v>5.85</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>100</v>
-      </c>
-      <c r="B24">
-        <v>2</v>
-      </c>
-      <c r="C24">
-        <v>1002</v>
-      </c>
-      <c r="D24" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24">
-        <v>540059</v>
-      </c>
-      <c r="F24">
-        <v>2863</v>
-      </c>
-      <c r="G24">
-        <v>846</v>
-      </c>
-      <c r="H24">
-        <v>1240</v>
-      </c>
-      <c r="I24">
-        <v>-0.73</v>
-      </c>
-      <c r="J24">
-        <v>4836</v>
-      </c>
-      <c r="K24">
-        <v>1579</v>
-      </c>
-      <c r="L24">
-        <v>6.03</v>
-      </c>
-      <c r="M24">
-        <v>5.3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>100</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <v>1001</v>
-      </c>
-      <c r="D25" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25">
-        <v>541637</v>
-      </c>
-      <c r="F25">
-        <v>2587</v>
-      </c>
-      <c r="G25">
-        <v>892</v>
-      </c>
-      <c r="H25">
-        <v>1417</v>
-      </c>
-      <c r="I25">
-        <v>-0.97</v>
-      </c>
-      <c r="J25">
-        <v>4523</v>
-      </c>
-      <c r="K25">
-        <v>1411</v>
-      </c>
-      <c r="L25">
-        <v>5.75</v>
-      </c>
-      <c r="M25">
-        <v>4.78</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>99</v>
-      </c>
-      <c r="B26">
-        <v>4</v>
-      </c>
-      <c r="C26">
-        <v>994</v>
-      </c>
-      <c r="D26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26">
-        <v>543248</v>
-      </c>
-      <c r="F26">
-        <v>-605</v>
-      </c>
-      <c r="G26">
-        <v>902</v>
-      </c>
-      <c r="H26">
-        <v>1328</v>
-      </c>
-      <c r="I26">
-        <v>-0.78</v>
-      </c>
-      <c r="J26">
-        <v>4570</v>
-      </c>
-      <c r="K26">
-        <v>4749</v>
-      </c>
-      <c r="L26">
-        <v>-0.33</v>
-      </c>
-      <c r="M26">
-        <v>-1.1100000000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>99</v>
-      </c>
-      <c r="B27">
-        <v>3</v>
-      </c>
-      <c r="C27">
-        <v>993</v>
-      </c>
-      <c r="D27" t="s">
-        <v>25</v>
-      </c>
-      <c r="E27">
-        <v>543853</v>
-      </c>
-      <c r="F27">
-        <v>-929</v>
-      </c>
-      <c r="G27">
-        <v>843</v>
-      </c>
-      <c r="H27">
-        <v>1192</v>
-      </c>
-      <c r="I27">
-        <v>-0.64</v>
-      </c>
-      <c r="J27">
-        <v>5767</v>
-      </c>
-      <c r="K27">
-        <v>6347</v>
-      </c>
-      <c r="L27">
-        <v>-1.07</v>
-      </c>
-      <c r="M27">
-        <v>-1.71</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>99</v>
-      </c>
-      <c r="B28">
-        <v>2</v>
-      </c>
-      <c r="C28">
-        <v>992</v>
-      </c>
-      <c r="D28" t="s">
-        <v>25</v>
-      </c>
-      <c r="E28">
-        <v>544782</v>
-      </c>
-      <c r="F28">
-        <v>-2119</v>
-      </c>
-      <c r="G28">
-        <v>785</v>
-      </c>
-      <c r="H28">
-        <v>1188</v>
-      </c>
-      <c r="I28">
-        <v>-0.74</v>
-      </c>
-      <c r="J28">
-        <v>4902</v>
-      </c>
-      <c r="K28">
-        <v>6618</v>
-      </c>
-      <c r="L28">
-        <v>-3.15</v>
-      </c>
-      <c r="M28">
-        <v>-3.89</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>99</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29">
-        <v>991</v>
-      </c>
-      <c r="D29" t="s">
-        <v>25</v>
-      </c>
-      <c r="E29">
-        <v>546901</v>
-      </c>
-      <c r="F29">
-        <v>-815</v>
-      </c>
-      <c r="G29">
-        <v>955</v>
-      </c>
-      <c r="H29">
-        <v>1262</v>
-      </c>
-      <c r="I29">
-        <v>-0.56000000000000005</v>
-      </c>
-      <c r="J29">
-        <v>5564</v>
-      </c>
-      <c r="K29">
-        <v>6072</v>
-      </c>
-      <c r="L29">
-        <v>-0.93</v>
-      </c>
-      <c r="M29">
-        <v>-1.49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>98</v>
-      </c>
-      <c r="B30">
-        <v>4</v>
-      </c>
-      <c r="C30">
-        <v>984</v>
-      </c>
-      <c r="D30" t="s">
-        <v>25</v>
-      </c>
-      <c r="E30">
-        <v>547716</v>
-      </c>
-      <c r="F30">
-        <v>531</v>
-      </c>
-      <c r="G30">
-        <v>1169</v>
-      </c>
-      <c r="H30">
-        <v>1214</v>
-      </c>
-      <c r="I30">
-        <v>-0.08</v>
-      </c>
-      <c r="J30">
-        <v>5220</v>
-      </c>
-      <c r="K30">
-        <v>4644</v>
-      </c>
-      <c r="L30">
-        <v>1.05</v>
-      </c>
-      <c r="M30">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>98</v>
-      </c>
-      <c r="B31">
-        <v>3</v>
-      </c>
-      <c r="C31">
-        <v>983</v>
-      </c>
-      <c r="D31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31">
-        <v>547185</v>
-      </c>
-      <c r="F31">
-        <v>-365</v>
-      </c>
-      <c r="G31">
-        <v>1079</v>
-      </c>
-      <c r="H31">
-        <v>1216</v>
-      </c>
-      <c r="I31">
-        <v>-0.25</v>
-      </c>
-      <c r="J31">
-        <v>5809</v>
-      </c>
-      <c r="K31">
-        <v>6037</v>
-      </c>
-      <c r="L31">
-        <v>-0.42</v>
-      </c>
-      <c r="M31">
-        <v>-0.67</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>98</v>
-      </c>
-      <c r="B32">
-        <v>2</v>
-      </c>
-      <c r="C32">
-        <v>982</v>
-      </c>
-      <c r="D32" t="s">
-        <v>25</v>
-      </c>
-      <c r="E32">
-        <v>547550</v>
-      </c>
-      <c r="F32">
-        <v>-489</v>
-      </c>
-      <c r="G32">
-        <v>903</v>
-      </c>
-      <c r="H32">
-        <v>1087</v>
-      </c>
-      <c r="I32">
-        <v>-0.34</v>
-      </c>
-      <c r="J32">
-        <v>5960</v>
-      </c>
-      <c r="K32">
-        <v>6265</v>
-      </c>
-      <c r="L32">
-        <v>-0.56000000000000005</v>
-      </c>
-      <c r="M32">
-        <v>-0.9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>98</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33">
-        <v>981</v>
-      </c>
-      <c r="D33" t="s">
-        <v>25</v>
-      </c>
-      <c r="E33">
-        <v>548039</v>
-      </c>
-      <c r="F33">
-        <v>-692</v>
-      </c>
-      <c r="G33">
-        <v>1101</v>
-      </c>
-      <c r="H33">
-        <v>1242</v>
-      </c>
-      <c r="I33">
-        <v>-0.26</v>
-      </c>
-      <c r="J33">
-        <v>5841</v>
-      </c>
-      <c r="K33">
-        <v>6392</v>
-      </c>
-      <c r="L33">
-        <v>-1.01</v>
-      </c>
-      <c r="M33">
-        <v>-1.27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>97</v>
-      </c>
-      <c r="B34">
-        <v>4</v>
-      </c>
-      <c r="C34">
-        <v>974</v>
-      </c>
-      <c r="D34" t="s">
-        <v>25</v>
-      </c>
-      <c r="E34">
-        <v>548731</v>
-      </c>
-      <c r="F34">
-        <v>79</v>
-      </c>
-      <c r="G34">
-        <v>1308</v>
-      </c>
-      <c r="H34">
-        <v>1303</v>
-      </c>
-      <c r="I34">
-        <v>0.01</v>
-      </c>
-      <c r="J34">
-        <v>5928</v>
-      </c>
-      <c r="K34">
-        <v>5854</v>
-      </c>
-      <c r="L34">
-        <v>0.13</v>
-      </c>
-      <c r="M34">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>97</v>
-      </c>
-      <c r="B35">
-        <v>3</v>
-      </c>
-      <c r="C35">
-        <v>973</v>
-      </c>
-      <c r="D35" t="s">
-        <v>25</v>
-      </c>
-      <c r="E35">
-        <v>548652</v>
-      </c>
-      <c r="F35">
-        <v>-613</v>
-      </c>
-      <c r="G35">
-        <v>1042</v>
-      </c>
-      <c r="H35">
-        <v>1080</v>
-      </c>
-      <c r="I35">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="J35">
-        <v>5300</v>
-      </c>
-      <c r="K35">
-        <v>5875</v>
-      </c>
-      <c r="L35">
-        <v>-1.05</v>
-      </c>
-      <c r="M35">
-        <v>-1.1200000000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>97</v>
-      </c>
-      <c r="B36">
-        <v>2</v>
-      </c>
-      <c r="C36">
-        <v>972</v>
-      </c>
-      <c r="D36" t="s">
-        <v>25</v>
-      </c>
-      <c r="E36">
-        <v>549265</v>
-      </c>
-      <c r="F36">
-        <v>-1079</v>
-      </c>
-      <c r="G36">
-        <v>1082</v>
-      </c>
-      <c r="H36">
-        <v>1186</v>
-      </c>
-      <c r="I36">
-        <v>-0.19</v>
-      </c>
-      <c r="J36">
-        <v>5619</v>
-      </c>
-      <c r="K36">
-        <v>6594</v>
-      </c>
-      <c r="L36">
-        <v>-1.78</v>
-      </c>
-      <c r="M36">
-        <v>-1.97</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>97</v>
-      </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37">
-        <v>971</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>550344</v>
-      </c>
-      <c r="F37">
-        <v>-1001</v>
-      </c>
-      <c r="G37">
-        <v>1233</v>
-      </c>
-      <c r="H37">
-        <v>1395</v>
-      </c>
-      <c r="I37">
-        <v>-0.28999999999999998</v>
-      </c>
-      <c r="J37">
-        <v>4475</v>
-      </c>
-      <c r="K37">
-        <v>5314</v>
-      </c>
-      <c r="L37">
-        <v>-1.52</v>
-      </c>
-      <c r="M37">
-        <v>-1.81</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>96</v>
-      </c>
-      <c r="B38">
-        <v>4</v>
-      </c>
-      <c r="C38">
-        <v>964</v>
-      </c>
-      <c r="D38" t="s">
-        <v>25</v>
-      </c>
-      <c r="E38">
-        <v>551345</v>
-      </c>
-      <c r="F38">
-        <v>-153</v>
-      </c>
-      <c r="G38">
-        <v>1349</v>
-      </c>
-      <c r="H38">
-        <v>1200</v>
-      </c>
-      <c r="I38">
-        <v>0.27</v>
-      </c>
-      <c r="J38">
-        <v>3994</v>
-      </c>
-      <c r="K38">
-        <v>4296</v>
-      </c>
-      <c r="L38">
-        <v>-0.55000000000000004</v>
-      </c>
-      <c r="M38">
-        <v>-0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>96</v>
-      </c>
-      <c r="B39">
-        <v>3</v>
-      </c>
-      <c r="C39">
-        <v>963</v>
-      </c>
-      <c r="D39" t="s">
-        <v>25</v>
-      </c>
-      <c r="E39">
-        <v>551498</v>
-      </c>
-      <c r="F39">
-        <v>-495</v>
-      </c>
-      <c r="G39">
-        <v>1170</v>
-      </c>
-      <c r="H39">
-        <v>1102</v>
-      </c>
-      <c r="I39">
-        <v>0.12</v>
-      </c>
-      <c r="J39">
-        <v>5508</v>
-      </c>
-      <c r="K39">
-        <v>6071</v>
-      </c>
-      <c r="L39">
-        <v>-1.02</v>
-      </c>
-      <c r="M39">
-        <v>-0.9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>96</v>
-      </c>
-      <c r="B40">
-        <v>2</v>
-      </c>
-      <c r="C40">
-        <v>962</v>
-      </c>
-      <c r="D40" t="s">
-        <v>25</v>
-      </c>
-      <c r="E40">
-        <v>551993</v>
-      </c>
-      <c r="F40">
-        <v>-826</v>
-      </c>
-      <c r="G40">
-        <v>1108</v>
-      </c>
-      <c r="H40">
-        <v>1170</v>
-      </c>
-      <c r="I40">
-        <v>-0.11</v>
-      </c>
-      <c r="J40">
-        <v>5583</v>
-      </c>
-      <c r="K40">
-        <v>6347</v>
-      </c>
-      <c r="L40">
-        <v>-1.38</v>
-      </c>
-      <c r="M40">
-        <v>-1.49</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>96</v>
-      </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41">
-        <v>961</v>
-      </c>
-      <c r="D41" t="s">
-        <v>25</v>
-      </c>
-      <c r="E41">
-        <v>552819</v>
-      </c>
-      <c r="F41">
-        <v>-1022</v>
-      </c>
-      <c r="G41">
-        <v>1247</v>
-      </c>
-      <c r="H41">
-        <v>1248</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>4780</v>
-      </c>
-      <c r="K41">
-        <v>5801</v>
-      </c>
-      <c r="L41">
-        <v>-1.85</v>
-      </c>
-      <c r="M41">
-        <v>-1.85</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState ref="B2:N41">
+    <sortCondition ref="D1"/>
+  </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -45926,10 +46186,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -45962,20 +46222,20 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1054</v>
+        <v>40</v>
       </c>
       <c r="B3" s="2">
-        <v>-112685.46799999999</v>
+        <v>728300.04311700002</v>
       </c>
       <c r="C3">
-        <v>1974.3589999999999</v>
+        <v>-540.31308799999999</v>
       </c>
       <c r="D3">
-        <v>-1.145</v>
+        <v>-7.0640010000000002</v>
       </c>
       <c r="E3">
         <f>B3+(C3*A3)+(D3*(A3*A3))</f>
-        <v>696290.098</v>
+        <v>695385.11799699999</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -45996,20 +46256,20 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1024</v>
+        <v>40</v>
       </c>
       <c r="B6" s="2">
-        <v>42.39</v>
+        <v>7.5185000000000002E-2</v>
       </c>
       <c r="C6">
-        <v>-7.5999999999999998E-2</v>
+        <v>-3.0418000000000001E-2</v>
       </c>
       <c r="D6">
-        <v>3.3170000000000003E-5</v>
+        <v>2.0900000000000001E-4</v>
       </c>
       <c r="E6">
         <f>B6+(C6*A6)+(D6*(A6*A6))</f>
-        <v>-0.65273407999999478</v>
+        <v>-0.80713499999999994</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -46030,20 +46290,20 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>1054</v>
+        <v>40</v>
       </c>
       <c r="B9" s="2">
-        <v>-732.46</v>
+        <v>-1.4284429999999999</v>
       </c>
       <c r="C9">
-        <v>1.456</v>
+        <v>0.17364599999999999</v>
       </c>
       <c r="D9">
-        <v>-1E-3</v>
+        <v>-4.3680000000000004E-3</v>
       </c>
       <c r="E9">
         <f>B9+(C9*A9)+(D9*(A9*A9))</f>
-        <v>-308.75199999999995</v>
+        <v>-1.4714030000000005</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -46073,24 +46333,89 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>1204</v>
+        <v>40</v>
       </c>
       <c r="B13" s="2">
-        <v>-754829.29799999995</v>
+        <v>553948.14251000003</v>
       </c>
       <c r="C13">
-        <v>2968.6320000000001</v>
+        <v>-581.78548899999998</v>
       </c>
       <c r="D13">
-        <v>-1.673</v>
+        <v>-10.297091</v>
       </c>
       <c r="E13">
         <f>B13+(C13*A13)+(D13*(A13*A13))</f>
-        <v>394196.06200000038</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
+        <v>514201.37735000008</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>40</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.27896900000000002</v>
+      </c>
+      <c r="C16">
+        <v>-7.3024000000000006E-2</v>
+      </c>
+      <c r="D16">
+        <v>8.4500000000000005E-4</v>
+      </c>
+      <c r="E16">
+        <f>B16+(C16*A16)+(D16*(A16*A16))</f>
+        <v>-1.2899909999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>40</v>
+      </c>
+      <c r="B19" s="2">
+        <v>-1.50288</v>
+      </c>
+      <c r="C19">
+        <v>0.141537</v>
+      </c>
+      <c r="D19">
+        <v>-3.555E-3</v>
+      </c>
+      <c r="E19">
+        <f>B19+(C19*A19)+(D19*(A19*A19))</f>
+        <v>-1.5293999999999999</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
